--- a/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00405171</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Efavirenz to Nevirapine Switch in HIV-1 Infected Patients With Severe Dyslipidemia: A Randomized Controlled Study</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00362492</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>9-10 Days Versus Prolonged Thromboprophylaxis in Patients Without Evidence of Ultrasound Proximal Thromboembolism After Total Knee Joint Replacement: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -596,36 +611,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00277888</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Complications of Jugular and Femoral Venous Catheterization in Critically Ill Patients Requiring Hemodialysis: A Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>CATHEDIA</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -644,36 +664,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00931645</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Randomized Phase III Trial Evaluating the Role of Autologous Stem Cell Transplantation in Previously Untreated Patients With Stage B and C Chronic Lymphocytic Leukemia</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Auto-LLC 2001</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -692,36 +717,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01070862</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Multiple Myeloma Treatment With Thalidomide. Three Randomized Studies on Thalidomide as Induction Treatment Before Autotransplant (MY-TAG) or With a Conventional Chemotherapy (MY-DECT) and as Consolidation/Maintenance at Plateau Phase (MY-PLAT).</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>MAG 2002</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -740,32 +770,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00963066</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>NAV-ALI: Effects of Different Levels of Neurally Adjusted Ventilatory Assist (NAVA) in Patients Recovering Spontaneous Breathing After Acute Lung Injury: A Physiological Evaluation.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -782,38 +817,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2007-005170-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pharmacocinétique de l’Hydrocortisone chez le patient ADdisonien : évaluation de la valeur prédictive de l’ACTH plasmatique pour la titration du traitement substitutif</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>PHAD</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -828,36 +868,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00811109</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>HEMOTOL: Effects of New Dialysis On-line Monitoring Devices on Hemodynamic Stability During Intermittent Hemodialysis in Critically Ill Patients With Acute Kidney Injury : a Prospective Randomized Study.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>HEMOTOL</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -876,36 +921,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00876967</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Comparison of Performance of Three Laryngoscope Blades: Plastic Single Use, Metallic Single Use and Metallic Reusable Blades.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Laryngotest</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -922,38 +972,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2007-001842-42</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Fixation de prothèses par Tissucol dans la cure de prolapsus  par voie vaginale</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>TISSPRO</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -968,36 +1023,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01471600</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Randomized Control Study : Safety and Efficacy of Carbohydrate Drink Ingested Two Hours Before Upper Endoscopy Under General Anaesthesia</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>ENDOGLUcide</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1016,36 +1076,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00850278</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Assessment of [18F]FLT-PET Imaging for Diagnosis and Prognosis of Brain Tumors</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>FLT</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1064,32 +1129,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT01074619</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Effects of Memantine on Cognitive Disorders of Relapsing-remitting Multiple Sclerosis</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1108,32 +1178,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01518075</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Breathing-swallowing Interaction in Chronic Obstructive Pulmonary Disease (COPD) Patients Hospitalized in Intensive Care Unit for an Acute Exacerbation: Impact of Non Invasive Ventilation. Physiological Evaluation</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1152,36 +1227,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01231828</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Method of Assessment of Driving Ability in Patients Suffering From Wakefulness Pathologies. Impact of Lactulose and Carnitine Treatment.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>AutoSop-Foie</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1200,36 +1280,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01200134</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Hypoxia Diagnosis and Evaluation Using F-MISO PET and Biomarkers in Brain Tumors</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>HYPONCO</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1248,28 +1333,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01251666</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Comparison of Performances of Two Automated Immunochemical Faecal Occult Blood Tests in Colorectal Cancer Screening, in Reference to Usual Care Guaiac Test</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>HeMO</t>
         </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1277,7 +1364,10 @@
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1296,36 +1386,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01022697</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Randomized Control Study : Evaluation of the Benefits of Glucose Drinks During Childbirth</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>SOLISO</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1344,36 +1439,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01212211</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Hyponatremia in the Elderly: Benefit From a Change in Drug Therapy?</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>NATRIPHAR</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1392,36 +1492,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02514317</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Ultrasound-assisted Percutaneous Release of Carpal Tunnel Syndrome</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>ECHOCARPE</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1440,36 +1545,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01535716</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Does Goal-directed Hemodynamic Therapy Driven by Endotracheal Cardiac Output Monitoring System During Surgical Intervention Reduce Hospital Stay and Major Adverse Cardiac Events Following Cardiac Surgery?</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>ECOMIII</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1488,36 +1598,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01466439</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Evaluation of Effect of Low and High-frequencies of Repetitive Transcranial Magnetic Stimulation (rTMS) by the Suppression of P50 Evoked Potential Component (rTMS-P50)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>rTMS-P50</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1536,32 +1651,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02525315</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>TMS HALLU</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1580,32 +1700,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02510521</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>ELECTRODIAB</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1624,32 +1749,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT02517190</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>COSI@PFC</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1668,36 +1798,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02563236</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Evaluation of 3D Selection Tasks in Parabolic Flight Conditions: Pointing Task in Augmented Reality User Interfaces</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>3DPICK</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1716,32 +1851,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02517138</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>DROITDEVANT</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1760,32 +1900,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02563262</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>HYDRONAUT</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1804,36 +1949,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT02510755</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Stress and Emotional Memory : Functional Neuroanatomy of Post-traumatic Stress Disorder in Adolescents</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>SEME</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1852,32 +2002,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT01636089</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
         <is>
           <t>HYDRAREA</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1896,32 +2051,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02517736</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>O-Mel-Sora</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1940,24 +2100,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02524574</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>TEP-READ</t>
         </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
@@ -1965,7 +2127,10 @@
       <c r="K33" t="b">
         <v>1</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1984,36 +2149,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT01022489</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Evaluation of Repetitive Transcranial Magnetic Stimulation (rTMS) at High Frequency With Neuronavigation in the Treatment of Auditory Hallucinations : A Randomized Multicentric Controlled Study</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>TMS-Hz</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2032,28 +2202,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT01479153</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Comparison of Subclavian, Femoral and Internal Jugular Venous Catheterization in Term of Complications in the Intensive Care Unit: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>3SITES</t>
         </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -2061,7 +2233,10 @@
       <c r="K35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2080,36 +2255,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT01564745</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Cough Determinants in Mechanically Ventilated Patients: a Physiological Study</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Extu-Cough</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2128,36 +2308,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02910479</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Phase 1 Study Evaluating the Relevance and Reliability of Gastrointestinal Temperature Measurements From a New Device (E-celsius)</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>e-TEMP</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2176,32 +2361,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02510703</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>D-TEP</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2220,36 +2410,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02128945</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Dosimetry and Biodistribution of [18F]-Fludarabine in Lymphoid Malignancies</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>FLUDATEP</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2268,28 +2463,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT02343601</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Perioperative Hemodynamic Optimization Using the Photoplethysmography in Colorectal Surgery : A Randomized Controlled Study</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>PANEX3</t>
         </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -2297,7 +2494,10 @@
       <c r="K40" t="b">
         <v>1</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2316,32 +2516,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02847806</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>STEROSENS</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2358,40 +2563,45 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2014-000457-36</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>A comparative dynamic study of myocardial perfusion reserve explored by cardiac WATER labelled O-15 -PET vs Tc99mibi D-SPECT in coronAry arterY disease. Protocol WATER -DAY 
  Evaluation de la réserve Coronaire par la TEP à l’H215O et la coronarographie chez les patients coronariens : Etude comparative avec la caméra SPECTRUM-DYNAMICS au 99mTc-mibi. Protocol WATER -DAY.</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>WATER-DAY 
  WATER-DAY</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
         <v>1</v>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2406,28 +2616,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02207296</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Operative Hemodynamic Optimization Using the Plethysmographic Variability Index During Orthopedic Surgery : a Multicentric Prospective Randomized Controlled Study</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>OPVI</t>
         </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -2435,7 +2647,10 @@
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2454,36 +2669,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02000414</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Pharmacokinetics Study of Intraperitoneal Administration of Daptomycin in Patients With Peritoneal Dialysis and Peritoneal Infection</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>DAPTODP</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2502,32 +2722,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT03087825</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Effect of Preoxygenation With Spontaneous Breathing or Noninvasive Positive Pressure Ventilation With or Without a Calibrated Leak. An Experimental Study in Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2546,32 +2771,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02510677</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
         <is>
           <t>FAST DOGS</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2590,36 +2820,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT03407209</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Compared Efficacy of Patient-controlled Epidural Analgesia With or Without Automatic Boluses</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>FREE BOLI</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2636,38 +2871,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017-001474-41</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Bénéfices de la perfusion continue de lidocaïne intraveineuse en chirurgie bariatrique : une étude randomisée prospective contre placebo</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>XYLOBAR</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2682,28 +2922,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02292316</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Falls With Fracture : Role of Cognitive Disorders and Comparison With Bone Fragility</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>CFC</t>
         </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
@@ -2711,7 +2953,10 @@
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2730,36 +2975,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT03567070</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Pregnancy and Use of Psychoactive Substances: The Influence of Representations of Care on Care.</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>ADDGEST</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2778,28 +3028,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02773719</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Effect of the Intervention of Biofields Therapy on Warts of the Hands and Feet in Adults: a Prospective, Randomized, Double-blind Trial</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>MAGNETIK</t>
         </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
@@ -2807,7 +3059,10 @@
       <c r="K51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2826,36 +3081,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT04191759</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Reliability of the Passive Properties of the Calf Muscles in Healthy Subjects Assessed Using Isokinetic Device</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>ISOSTIFF</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2874,36 +3134,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT03029897</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Impact of E-reporting by Patients With Relapsing-remitting Multiple Sclerosis on the Reporting of Adverse Drug Reactions in France: a Randomized Controlled Trial.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>VigiP-SEP</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2922,32 +3187,37 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03725111</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Haemodynamics Variations of Transcutaneous Oxygen in Patient With Arterio-venous Leg Ulcers Under Venous Compression (COMPULCE Study)</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2966,36 +3236,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02799511</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Biomarkers for the Diagnosis of Transient Ischemic Attack</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>MAESTRO</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3014,36 +3289,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT02789007</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Effects of Parabolic Flight on Spatial Cognition and Hippocampal Plasticity</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>HypoCampus</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3062,36 +3342,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT03978026</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Evaluation de l'efficacité Sur la Vigilance et Les Performances de Conduite simulée d'Une Sieste effectuée Dans Des Environnements différents, Dont le Module SOMBOX</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>SOMBOX</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3110,28 +3395,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02751021</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Sleep Apnea Diagnosis Using a Novel Pacemaker Algorithm and Link With Aldosterone Plasma Level in Patients Presenting With Diastolic Dysfunction: SAPAAD Study</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>SAPAAD</t>
         </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
@@ -3139,7 +3426,10 @@
       <c r="K58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3158,36 +3448,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT03941847</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Musinduc : Impact of Music During the Period of Anaesthetic Induction - a Randomized Controlled Clinical Trial</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>MUSINDUC</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3206,36 +3501,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02832349</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Impact of Educational Actions on the Quality Of Life of Epileptic Patients</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>EQOLE</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3254,36 +3554,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT04061616</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Transcultural Validation of the Physical Activity Scale for Individuals With Physical Disabilities (PASIPD) in French: The PASIPD-Fr</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>PASIPD-Fr</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3302,36 +3607,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT04602234</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Diagnosis of Lower Respiratory Tract Infection by Lung Ultrasonography in General Practice : a Prospective, Interventional and Multicentric Study</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>AmbuLUS</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3350,36 +3660,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT05629247</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Pediatric Intensive Care Unit and Primary Immune Deficiency</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>PICUPID</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3398,36 +3713,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT05036200</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Efficacy, Tolerance and Acceptability of Pulsed Dye Laser on Telangiectasias of the Face and Neckline in Systemic Scleroderma: a Prospective Single-center Open-label Study of 21 Patients</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>PDL</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3446,32 +3766,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT04352283</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Does Preprocedural Ultrasound Exam of Lumbar Spine Increase the First-pass Success Rate of Epidural Space Identification Among Obese Parturients: A Randomized Controlled Open Trial</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
         <v>1</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3490,32 +3815,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT03539185</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Airtraq Versus Fiberoptic for Awake Tracheal Intubation : A Randomised Non-inferiority Trial</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3534,36 +3864,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT05971615</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Evaluate the Relevance of the Use of Peripheral Venous Blood Gases for the Care of Patients in the S.A.U.V (Vital Emergency Rooms) of the CHU de Caen</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>GDS</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3582,36 +3917,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT01805336</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Assessment of Attentional and Executive Disorders in Multiple Sclerosis Using Techniques of Virtual Reality</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>SEPREV</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3630,36 +3970,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT03963856</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>MULTI-SYSTEM PHYSIOLOGIC RESPONSE TO VARYING LEVELS OF PARTIAL GRAVITY</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>GRAVIDOSE</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3678,36 +4023,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT04244448</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>A Study of Bioequivalence When Administering Biktarvy® (TAF/FTC/BIC) in the Form of a Solid/Crushed/Dissolved Tablet to Healthy Volunteers - SOLUBIC Study</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>SOLUBIC</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3726,36 +4076,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT04434300</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Comparison of the Pharmacokinetic and the Safety of Daptomycin Administered Subcutaneously Compared to the Intravenous Route : a Cross-over Study</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>DAPTOSC</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3774,28 +4129,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT04685512</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Effect of Tenofovir/Emtricitabine Short Course on Viral Clearance in Patients Recently Infected With SARS-COV2 (Covid-19) Not Requiring Hospitalization: a Phase IIB/III Multicenter Open-label Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>AR0-CORONA</t>
         </is>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
@@ -3803,7 +4160,10 @@
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3822,36 +4182,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT04238572</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Evaluation of an Immersive Audiovisual Distraction Device Impact on Peroperative Opioid Consumption. A Prospective Randomized Controlled Study</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>AmbuCineView</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3870,36 +4235,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT04879290</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Comparison of Two FiO2 (1 or 0.5) for Tracheal Extubation in Post-anesthesia Care Unit : a Monocentric Randomized Trial</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>EXTUBO2</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3918,36 +4288,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT04168983</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Study of the Impact of Sophrology on the Pain Felt During a Bone Marrow Aspiration and Biopsy</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>BOM-ZEN</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3966,32 +4341,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT05538442</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Kinetics of the Determinants of Performance During an Ultra-trail</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4010,36 +4390,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT03843580</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Transnasal Humidified Rapid-Insufflation Ventilatory Exchange (THRIVE) Could Decrease the Incidence of Oxygen Desaturation During Suspension Laryngoscopy: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>optilaryngo</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4058,36 +4443,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT04020107</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Validity of Somatosensori Remediation for Postural Control in the Treatment of Ehlers-Danlos Syndrome Hypermobility Type (hEDS)</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>VITALISED</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4106,36 +4496,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT02157480</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>ELECTRODIAB2: Effect of an Outpatient Program of Bi-quadricipital Electrostimulation on Glucose Profile of Sedentary Patients With Type 2 Diabetes.</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>ELECTRODIAB2</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4154,36 +4549,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT05963750</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Assessment of the Impact of Virtual Reality on Patient Anxiety During Dental Avulsions Under Local Anesthesia</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>REVIDEN</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4202,36 +4602,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT05603780</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Cognitive, Emotional, Physiological, Chronobiological and Genetic Effects of a Time Underground Isolation</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>DEEPTIME</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4250,36 +4655,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT04006093</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Pharmacokinetics of Apixaban in Subjects With End-stage Renal Disease Treated With Peritoneal Dialysis: the ApiDP Study</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>ApiDP</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4298,28 +4708,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT01638949</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Study of the Predictive Markers and the Pathophysiological Mechanisms of Alzheimer's Disease: Transverse and Longitudinal Approach in Anatomical and Functional Multimodal Imaging</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>IMAP+</t>
         </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
@@ -4327,7 +4739,10 @@
       <c r="K83" t="b">
         <v>1</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4346,36 +4761,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT06442683</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Efficacy of Simulation-based Neonatal Echocardiography Training: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>SimuEchoNeo</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4394,36 +4814,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT05419258</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Feasibility and Evaluation Study of the UPLUG Hemodialysis Connection Device</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>UPLUG-SAFE</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4442,36 +4867,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT05717283</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Follow-up of the Nasal Microbiome and Viral Infections in Newborns Hospitalised in Neonatology in the University Hospital of Caen, France : Metatranscriptomics Approach by Next Generation Sequencing From Nasal Swabs.</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>NEOBIOME</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4490,36 +4920,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT04927949</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Evaluation of Myocardial Reperfusion and Residual Thrombotic Burden After Primary PCI for STEMI in Patients With High on Ticagrelor Platelet Reactivity Treated by IV Cangrelor Versus Ticagrelor Alone</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>ERMIT</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4538,36 +4973,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT05966402</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Evaluation of Immersion in Virtual Reality in the Management of Anxiety, Then Pain, of Patients in Interventional Imaging.</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>IRVARI</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4584,40 +5024,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020-003621-36</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée. 
  Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée.</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>ERMIT 
  ERMIT</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4632,36 +5077,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT03677063</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Usefulness of Sterile Adhesive Dressing at the Exit-site of Peritoneal Dialysis Catheter: a Pilot Study</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>PANCADIPE</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4680,36 +5130,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT04187170</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Longitudinal Analysis of Right Ventricular Remodeling in Response to Prolonged Strength Training Using 3D-echocardiography</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>FORCE-VD</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4728,28 +5183,33 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT02517177</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
         <is>
           <t>AUTOCARD</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4768,28 +5228,33 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT02516787</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
         <is>
           <t>CORTICOG</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4808,28 +5273,33 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT02510872</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
         <is>
           <t>TEPVAD</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4848,28 +5318,33 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT02524535</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
         <is>
           <t>IPSI2</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4888,28 +5363,33 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT02524600</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
         <is>
           <t>IQSCINTIMYOC</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4928,28 +5408,33 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT02510859</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
         <is>
           <t>NUQUE2</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4968,32 +5453,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT01211236</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
         <is>
           <t>Maggot Therapy for Wound Debridement: a Randomized Multicentric Double-blind Trial</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>MAGGOT</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
         <v>1</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5012,28 +5502,33 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT02515812</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
         <is>
           <t>ADRECARD</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5052,28 +5547,33 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT02518880</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
         <is>
           <t>DYMCO</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5090,36 +5590,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2015-005804-27</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Essai randomisé, contrôlé, en double aveugle, de l'anakinra contre placebo, en adjonction à la corticothérapie dans l'artérite à cellules géantes. 
  Essai randomisé, contrôlé, en double aveugle, de l'anakinra contre placebo, en adjonction à la corticothérapie dans l'artérite à cellules géantes.</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>GiAnT 
  GiAnT</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT00405171</t>

--- a/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -70,12 +70,12 @@
     <t>NCT00405171</t>
   </si>
   <si>
+    <t>NCT00277888</t>
+  </si>
+  <si>
     <t>NCT00362492</t>
   </si>
   <si>
-    <t>NCT00277888</t>
-  </si>
-  <si>
     <t>NCT00931645</t>
   </si>
   <si>
@@ -100,24 +100,24 @@
     <t>NCT01074619</t>
   </si>
   <si>
+    <t>NCT01212211</t>
+  </si>
+  <si>
+    <t>NCT01022697</t>
+  </si>
+  <si>
     <t>NCT01518075</t>
   </si>
   <si>
+    <t>NCT01200134</t>
+  </si>
+  <si>
     <t>NCT01231828</t>
   </si>
   <si>
-    <t>NCT01200134</t>
-  </si>
-  <si>
     <t>NCT01251666</t>
   </si>
   <si>
-    <t>NCT01022697</t>
-  </si>
-  <si>
-    <t>NCT01212211</t>
-  </si>
-  <si>
     <t>NCT02514317</t>
   </si>
   <si>
@@ -130,138 +130,141 @@
     <t>NCT02525315</t>
   </si>
   <si>
+    <t>NCT02563262</t>
+  </si>
+  <si>
+    <t>NCT02563236</t>
+  </si>
+  <si>
+    <t>NCT02517138</t>
+  </si>
+  <si>
+    <t>NCT02517190</t>
+  </si>
+  <si>
     <t>NCT02510521</t>
   </si>
   <si>
-    <t>NCT02517190</t>
-  </si>
-  <si>
-    <t>NCT02563236</t>
-  </si>
-  <si>
-    <t>NCT02517138</t>
-  </si>
-  <si>
-    <t>NCT02563262</t>
+    <t>NCT01479153</t>
   </si>
   <si>
     <t>NCT02510755</t>
   </si>
   <si>
+    <t>NCT02517736</t>
+  </si>
+  <si>
+    <t>NCT01564745</t>
+  </si>
+  <si>
     <t>NCT01636089</t>
   </si>
   <si>
-    <t>NCT02517736</t>
+    <t>NCT01022489</t>
   </si>
   <si>
     <t>NCT02524574</t>
   </si>
   <si>
-    <t>NCT01022489</t>
-  </si>
-  <si>
-    <t>NCT01479153</t>
-  </si>
-  <si>
-    <t>NCT01564745</t>
+    <t>NCT02343601</t>
+  </si>
+  <si>
+    <t>NCT02847806</t>
   </si>
   <si>
     <t>NCT02910479</t>
   </si>
   <si>
+    <t>NCT02128945</t>
+  </si>
+  <si>
     <t>NCT02510703</t>
   </si>
   <si>
-    <t>NCT02128945</t>
-  </si>
-  <si>
-    <t>NCT02343601</t>
-  </si>
-  <si>
-    <t>NCT02847806</t>
+    <t>NCT02000414</t>
   </si>
   <si>
     <t>NCT02207296</t>
   </si>
   <si>
-    <t>NCT02000414</t>
-  </si>
-  <si>
     <t>NCT03087825</t>
   </si>
   <si>
     <t>NCT02510677</t>
   </si>
   <si>
+    <t>NCT04191759</t>
+  </si>
+  <si>
     <t>NCT03407209</t>
   </si>
   <si>
     <t>NCT02292316</t>
   </si>
   <si>
+    <t>NCT02773719</t>
+  </si>
+  <si>
     <t>NCT03567070</t>
   </si>
   <si>
-    <t>NCT02773719</t>
-  </si>
-  <si>
-    <t>NCT04191759</t>
+    <t>NCT02789007</t>
+  </si>
+  <si>
+    <t>NCT02799511</t>
+  </si>
+  <si>
+    <t>NCT03725111</t>
+  </si>
+  <si>
+    <t>NCT02832349</t>
+  </si>
+  <si>
+    <t>NCT02751021</t>
   </si>
   <si>
     <t>NCT03029897</t>
   </si>
   <si>
-    <t>NCT03725111</t>
-  </si>
-  <si>
-    <t>NCT02799511</t>
-  </si>
-  <si>
-    <t>NCT02789007</t>
+    <t>NCT03941847</t>
   </si>
   <si>
     <t>NCT03978026</t>
   </si>
   <si>
-    <t>NCT02751021</t>
-  </si>
-  <si>
-    <t>NCT03941847</t>
-  </si>
-  <si>
-    <t>NCT02832349</t>
-  </si>
-  <si>
     <t>NCT04061616</t>
   </si>
   <si>
+    <t>NCT05629247</t>
+  </si>
+  <si>
+    <t>NCT05036200</t>
+  </si>
+  <si>
+    <t>NCT04352283</t>
+  </si>
+  <si>
+    <t>NCT03963856</t>
+  </si>
+  <si>
+    <t>NCT05971615</t>
+  </si>
+  <si>
+    <t>NCT03539185</t>
+  </si>
+  <si>
     <t>NCT04602234</t>
   </si>
   <si>
-    <t>NCT05629247</t>
-  </si>
-  <si>
-    <t>NCT05036200</t>
-  </si>
-  <si>
-    <t>NCT04352283</t>
-  </si>
-  <si>
-    <t>NCT03539185</t>
-  </si>
-  <si>
-    <t>NCT05971615</t>
-  </si>
-  <si>
     <t>NCT01805336</t>
   </si>
   <si>
-    <t>NCT03963856</t>
-  </si>
-  <si>
     <t>NCT04244448</t>
   </si>
   <si>
+    <t>NCT04879290</t>
+  </si>
+  <si>
     <t>NCT04434300</t>
   </si>
   <si>
@@ -271,67 +274,67 @@
     <t>NCT04238572</t>
   </si>
   <si>
-    <t>NCT04879290</t>
-  </si>
-  <si>
     <t>NCT04168983</t>
   </si>
   <si>
+    <t>NCT04020107</t>
+  </si>
+  <si>
+    <t>NCT05963750</t>
+  </si>
+  <si>
+    <t>NCT04006093</t>
+  </si>
+  <si>
+    <t>NCT05603780</t>
+  </si>
+  <si>
+    <t>NCT01638949</t>
+  </si>
+  <si>
     <t>NCT05538442</t>
   </si>
   <si>
+    <t>NCT02157480</t>
+  </si>
+  <si>
     <t>NCT03843580</t>
   </si>
   <si>
-    <t>NCT04020107</t>
-  </si>
-  <si>
-    <t>NCT02157480</t>
-  </si>
-  <si>
-    <t>NCT05963750</t>
-  </si>
-  <si>
-    <t>NCT05603780</t>
-  </si>
-  <si>
-    <t>NCT04006093</t>
-  </si>
-  <si>
-    <t>NCT01638949</t>
+    <t>NCT05966402</t>
+  </si>
+  <si>
+    <t>NCT04927949</t>
   </si>
   <si>
     <t>NCT06442683</t>
   </si>
   <si>
+    <t>NCT04187170</t>
+  </si>
+  <si>
+    <t>NCT05717283</t>
+  </si>
+  <si>
+    <t>NCT03677063</t>
+  </si>
+  <si>
     <t>NCT05419258</t>
   </si>
   <si>
-    <t>NCT05717283</t>
-  </si>
-  <si>
-    <t>NCT04927949</t>
-  </si>
-  <si>
-    <t>NCT05966402</t>
-  </si>
-  <si>
-    <t>NCT03677063</t>
-  </si>
-  <si>
-    <t>NCT04187170</t>
-  </si>
-  <si>
     <t>NCT02517177</t>
   </si>
   <si>
     <t>NCT02516787</t>
   </si>
   <si>
+    <t>NCT02524535</t>
+  </si>
+  <si>
     <t>NCT02510872</t>
   </si>
   <si>
-    <t>NCT02524535</t>
+    <t>NCT01211236</t>
   </si>
   <si>
     <t>NCT02524600</t>
@@ -340,9 +343,6 @@
     <t>NCT02510859</t>
   </si>
   <si>
-    <t>NCT01211236</t>
-  </si>
-  <si>
     <t>NCT02515812</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>Efavirenz to Nevirapine Switch in HIV-1 Infected Patients With Severe Dyslipidemia: A Randomized Controlled Study</t>
   </si>
   <si>
+    <t>Complications of Jugular and Femoral Venous Catheterization in Critically Ill Patients Requiring Hemodialysis: A Randomized Controlled Trial</t>
+  </si>
+  <si>
     <t>9-10 Days Versus Prolonged Thromboprophylaxis in Patients Without Evidence of Ultrasound Proximal Thromboembolism After Total Knee Joint Replacement: a Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Complications of Jugular and Femoral Venous Catheterization in Critically Ill Patients Requiring Hemodialysis: A Randomized Controlled Trial</t>
-  </si>
-  <si>
     <t>Randomized Phase III Trial Evaluating the Role of Autologous Stem Cell Transplantation in Previously Untreated Patients With Stage B and C Chronic Lymphocytic Leukemia</t>
   </si>
   <si>
@@ -439,45 +439,45 @@
     <t>NAV-ALI: Effects of Different Levels of Neurally Adjusted Ventilatory Assist (NAVA) in Patients Recovering Spontaneous Breathing After Acute Lung Injury: A Physiological Evaluation.</t>
   </si>
   <si>
+    <t>HEMOTOL: Effects of New Dialysis On-line Monitoring Devices on Hemodynamic Stability During Intermittent Hemodialysis in Critically Ill Patients With Acute Kidney Injury : a Prospective Randomized Study.</t>
+  </si>
+  <si>
     <t>Pharmacocinétique de l’Hydrocortisone chez le patient ADdisonien : évaluation de la valeur prédictive de l’ACTH plasmatique pour la titration du traitement substitutif</t>
   </si>
   <si>
-    <t>HEMOTOL: Effects of New Dialysis On-line Monitoring Devices on Hemodynamic Stability During Intermittent Hemodialysis in Critically Ill Patients With Acute Kidney Injury : a Prospective Randomized Study.</t>
-  </si>
-  <si>
     <t>Comparison of Performance of Three Laryngoscope Blades: Plastic Single Use, Metallic Single Use and Metallic Reusable Blades.</t>
   </si>
   <si>
+    <t>Randomized Control Study : Safety and Efficacy of Carbohydrate Drink Ingested Two Hours Before Upper Endoscopy Under General Anaesthesia</t>
+  </si>
+  <si>
     <t>Fixation de prothèses par Tissucol dans la cure de prolapsus  par voie vaginale</t>
   </si>
   <si>
-    <t>Randomized Control Study : Safety and Efficacy of Carbohydrate Drink Ingested Two Hours Before Upper Endoscopy Under General Anaesthesia</t>
-  </si>
-  <si>
     <t>Assessment of [18F]FLT-PET Imaging for Diagnosis and Prognosis of Brain Tumors</t>
   </si>
   <si>
     <t>Effects of Memantine on Cognitive Disorders of Relapsing-remitting Multiple Sclerosis</t>
   </si>
   <si>
+    <t>Hyponatremia in the Elderly: Benefit From a Change in Drug Therapy?</t>
+  </si>
+  <si>
+    <t>Randomized Control Study : Evaluation of the Benefits of Glucose Drinks During Childbirth</t>
+  </si>
+  <si>
     <t>Breathing-swallowing Interaction in Chronic Obstructive Pulmonary Disease (COPD) Patients Hospitalized in Intensive Care Unit for an Acute Exacerbation: Impact of Non Invasive Ventilation. Physiological Evaluation</t>
   </si>
   <si>
+    <t>Hypoxia Diagnosis and Evaluation Using F-MISO PET and Biomarkers in Brain Tumors</t>
+  </si>
+  <si>
     <t>Method of Assessment of Driving Ability in Patients Suffering From Wakefulness Pathologies. Impact of Lactulose and Carnitine Treatment.</t>
   </si>
   <si>
-    <t>Hypoxia Diagnosis and Evaluation Using F-MISO PET and Biomarkers in Brain Tumors</t>
-  </si>
-  <si>
     <t>Comparison of Performances of Two Automated Immunochemical Faecal Occult Blood Tests in Colorectal Cancer Screening, in Reference to Usual Care Guaiac Test</t>
   </si>
   <si>
-    <t>Randomized Control Study : Evaluation of the Benefits of Glucose Drinks During Childbirth</t>
-  </si>
-  <si>
-    <t>Hyponatremia in the Elderly: Benefit From a Change in Drug Therapy?</t>
-  </si>
-  <si>
     <t>Ultrasound-assisted Percutaneous Release of Carpal Tunnel Syndrome</t>
   </si>
   <si>
@@ -490,40 +490,43 @@
     <t>Evaluation of 3D Selection Tasks in Parabolic Flight Conditions: Pointing Task in Augmented Reality User Interfaces</t>
   </si>
   <si>
+    <t>Comparison of Subclavian, Femoral and Internal Jugular Venous Catheterization in Term of Complications in the Intensive Care Unit: a Randomized Controlled Trial</t>
+  </si>
+  <si>
     <t>Stress and Emotional Memory : Functional Neuroanatomy of Post-traumatic Stress Disorder in Adolescents</t>
   </si>
   <si>
+    <t>Cough Determinants in Mechanically Ventilated Patients: a Physiological Study</t>
+  </si>
+  <si>
     <t>Evaluation of Repetitive Transcranial Magnetic Stimulation (rTMS) at High Frequency With Neuronavigation in the Treatment of Auditory Hallucinations : A Randomized Multicentric Controlled Study</t>
   </si>
   <si>
-    <t>Comparison of Subclavian, Femoral and Internal Jugular Venous Catheterization in Term of Complications in the Intensive Care Unit: a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Cough Determinants in Mechanically Ventilated Patients: a Physiological Study</t>
+    <t>Perioperative Hemodynamic Optimization Using the Photoplethysmography in Colorectal Surgery : A Randomized Controlled Study</t>
   </si>
   <si>
     <t>Phase 1 Study Evaluating the Relevance and Reliability of Gastrointestinal Temperature Measurements From a New Device (E-celsius)</t>
   </si>
   <si>
     <t>Dosimetry and Biodistribution of [18F]-Fludarabine in Lymphoid Malignancies</t>
-  </si>
-  <si>
-    <t>Perioperative Hemodynamic Optimization Using the Photoplethysmography in Colorectal Surgery : A Randomized Controlled Study</t>
   </si>
   <si>
     <t>A comparative dynamic study of myocardial perfusion reserve explored by cardiac WATER labelled O-15 -PET vs Tc99mibi D-SPECT in coronAry arterY disease. Protocol WATER -DAY 
  Evaluation de la réserve Coronaire par la TEP à l’H215O et la coronarographie chez les patients coronariens : Etude comparative avec la caméra SPECTRUM-DYNAMICS au 99mTc-mibi. Protocol WATER -DAY.</t>
   </si>
   <si>
+    <t>Pharmacokinetics Study of Intraperitoneal Administration of Daptomycin in Patients With Peritoneal Dialysis and Peritoneal Infection</t>
+  </si>
+  <si>
     <t>Operative Hemodynamic Optimization Using the Plethysmographic Variability Index During Orthopedic Surgery : a Multicentric Prospective Randomized Controlled Study</t>
   </si>
   <si>
-    <t>Pharmacokinetics Study of Intraperitoneal Administration of Daptomycin in Patients With Peritoneal Dialysis and Peritoneal Infection</t>
-  </si>
-  <si>
     <t>Effect of Preoxygenation With Spontaneous Breathing or Noninvasive Positive Pressure Ventilation With or Without a Calibrated Leak. An Experimental Study in Healthy Volunteers</t>
   </si>
   <si>
+    <t>Reliability of the Passive Properties of the Calf Muscles in Healthy Subjects Assessed Using Isokinetic Device</t>
+  </si>
+  <si>
     <t>Compared Efficacy of Patient-controlled Epidural Analgesia With or Without Automatic Boluses</t>
   </si>
   <si>
@@ -533,69 +536,69 @@
     <t>Falls With Fracture : Role of Cognitive Disorders and Comparison With Bone Fragility</t>
   </si>
   <si>
+    <t>Effect of the Intervention of Biofields Therapy on Warts of the Hands and Feet in Adults: a Prospective, Randomized, Double-blind Trial</t>
+  </si>
+  <si>
     <t>Pregnancy and Use of Psychoactive Substances: The Influence of Representations of Care on Care.</t>
   </si>
   <si>
-    <t>Effect of the Intervention of Biofields Therapy on Warts of the Hands and Feet in Adults: a Prospective, Randomized, Double-blind Trial</t>
-  </si>
-  <si>
-    <t>Reliability of the Passive Properties of the Calf Muscles in Healthy Subjects Assessed Using Isokinetic Device</t>
+    <t>Effects of Parabolic Flight on Spatial Cognition and Hippocampal Plasticity</t>
+  </si>
+  <si>
+    <t>Biomarkers for the Diagnosis of Transient Ischemic Attack</t>
+  </si>
+  <si>
+    <t>Haemodynamics Variations of Transcutaneous Oxygen in Patient With Arterio-venous Leg Ulcers Under Venous Compression (COMPULCE Study)</t>
+  </si>
+  <si>
+    <t>Impact of Educational Actions on the Quality Of Life of Epileptic Patients</t>
+  </si>
+  <si>
+    <t>Sleep Apnea Diagnosis Using a Novel Pacemaker Algorithm and Link With Aldosterone Plasma Level in Patients Presenting With Diastolic Dysfunction: SAPAAD Study</t>
   </si>
   <si>
     <t>Impact of E-reporting by Patients With Relapsing-remitting Multiple Sclerosis on the Reporting of Adverse Drug Reactions in France: a Randomized Controlled Trial.</t>
   </si>
   <si>
-    <t>Haemodynamics Variations of Transcutaneous Oxygen in Patient With Arterio-venous Leg Ulcers Under Venous Compression (COMPULCE Study)</t>
-  </si>
-  <si>
-    <t>Biomarkers for the Diagnosis of Transient Ischemic Attack</t>
-  </si>
-  <si>
-    <t>Effects of Parabolic Flight on Spatial Cognition and Hippocampal Plasticity</t>
+    <t>Musinduc : Impact of Music During the Period of Anaesthetic Induction - a Randomized Controlled Clinical Trial</t>
   </si>
   <si>
     <t>Evaluation de l'efficacité Sur la Vigilance et Les Performances de Conduite simulée d'Une Sieste effectuée Dans Des Environnements différents, Dont le Module SOMBOX</t>
   </si>
   <si>
-    <t>Sleep Apnea Diagnosis Using a Novel Pacemaker Algorithm and Link With Aldosterone Plasma Level in Patients Presenting With Diastolic Dysfunction: SAPAAD Study</t>
-  </si>
-  <si>
-    <t>Musinduc : Impact of Music During the Period of Anaesthetic Induction - a Randomized Controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>Impact of Educational Actions on the Quality Of Life of Epileptic Patients</t>
-  </si>
-  <si>
     <t>Transcultural Validation of the Physical Activity Scale for Individuals With Physical Disabilities (PASIPD) in French: The PASIPD-Fr</t>
   </si>
   <si>
+    <t>Pediatric Intensive Care Unit and Primary Immune Deficiency</t>
+  </si>
+  <si>
+    <t>Efficacy, Tolerance and Acceptability of Pulsed Dye Laser on Telangiectasias of the Face and Neckline in Systemic Scleroderma: a Prospective Single-center Open-label Study of 21 Patients</t>
+  </si>
+  <si>
+    <t>Does Preprocedural Ultrasound Exam of Lumbar Spine Increase the First-pass Success Rate of Epidural Space Identification Among Obese Parturients: A Randomized Controlled Open Trial</t>
+  </si>
+  <si>
+    <t>MULTI-SYSTEM PHYSIOLOGIC RESPONSE TO VARYING LEVELS OF PARTIAL GRAVITY</t>
+  </si>
+  <si>
+    <t>Evaluate the Relevance of the Use of Peripheral Venous Blood Gases for the Care of Patients in the S.A.U.V (Vital Emergency Rooms) of the CHU de Caen</t>
+  </si>
+  <si>
+    <t>Airtraq Versus Fiberoptic for Awake Tracheal Intubation : A Randomised Non-inferiority Trial</t>
+  </si>
+  <si>
     <t>Diagnosis of Lower Respiratory Tract Infection by Lung Ultrasonography in General Practice : a Prospective, Interventional and Multicentric Study</t>
   </si>
   <si>
-    <t>Pediatric Intensive Care Unit and Primary Immune Deficiency</t>
-  </si>
-  <si>
-    <t>Efficacy, Tolerance and Acceptability of Pulsed Dye Laser on Telangiectasias of the Face and Neckline in Systemic Scleroderma: a Prospective Single-center Open-label Study of 21 Patients</t>
-  </si>
-  <si>
-    <t>Does Preprocedural Ultrasound Exam of Lumbar Spine Increase the First-pass Success Rate of Epidural Space Identification Among Obese Parturients: A Randomized Controlled Open Trial</t>
-  </si>
-  <si>
-    <t>Airtraq Versus Fiberoptic for Awake Tracheal Intubation : A Randomised Non-inferiority Trial</t>
-  </si>
-  <si>
-    <t>Evaluate the Relevance of the Use of Peripheral Venous Blood Gases for the Care of Patients in the S.A.U.V (Vital Emergency Rooms) of the CHU de Caen</t>
-  </si>
-  <si>
     <t>Assessment of Attentional and Executive Disorders in Multiple Sclerosis Using Techniques of Virtual Reality</t>
   </si>
   <si>
-    <t>MULTI-SYSTEM PHYSIOLOGIC RESPONSE TO VARYING LEVELS OF PARTIAL GRAVITY</t>
-  </si>
-  <si>
     <t>A Study of Bioequivalence When Administering Biktarvy® (TAF/FTC/BIC) in the Form of a Solid/Crushed/Dissolved Tablet to Healthy Volunteers - SOLUBIC Study</t>
   </si>
   <si>
+    <t>Comparison of Two FiO2 (1 or 0.5) for Tracheal Extubation in Post-anesthesia Care Unit : a Monocentric Randomized Trial</t>
+  </si>
+  <si>
     <t>Comparison of the Pharmacokinetic and the Safety of Daptomycin Administered Subcutaneously Compared to the Intravenous Route : a Cross-over Study</t>
   </si>
   <si>
@@ -605,68 +608,65 @@
     <t>Evaluation of an Immersive Audiovisual Distraction Device Impact on Peroperative Opioid Consumption. A Prospective Randomized Controlled Study</t>
   </si>
   <si>
-    <t>Comparison of Two FiO2 (1 or 0.5) for Tracheal Extubation in Post-anesthesia Care Unit : a Monocentric Randomized Trial</t>
-  </si>
-  <si>
     <t>Study of the Impact of Sophrology on the Pain Felt During a Bone Marrow Aspiration and Biopsy</t>
   </si>
   <si>
+    <t>Validity of Somatosensori Remediation for Postural Control in the Treatment of Ehlers-Danlos Syndrome Hypermobility Type (hEDS)</t>
+  </si>
+  <si>
+    <t>Assessment of the Impact of Virtual Reality on Patient Anxiety During Dental Avulsions Under Local Anesthesia</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics of Apixaban in Subjects With End-stage Renal Disease Treated With Peritoneal Dialysis: the ApiDP Study</t>
+  </si>
+  <si>
+    <t>Cognitive, Emotional, Physiological, Chronobiological and Genetic Effects of a Time Underground Isolation</t>
+  </si>
+  <si>
+    <t>Study of the Predictive Markers and the Pathophysiological Mechanisms of Alzheimer's Disease: Transverse and Longitudinal Approach in Anatomical and Functional Multimodal Imaging</t>
+  </si>
+  <si>
     <t>Kinetics of the Determinants of Performance During an Ultra-trail</t>
   </si>
   <si>
+    <t>ELECTRODIAB2: Effect of an Outpatient Program of Bi-quadricipital Electrostimulation on Glucose Profile of Sedentary Patients With Type 2 Diabetes.</t>
+  </si>
+  <si>
     <t>Transnasal Humidified Rapid-Insufflation Ventilatory Exchange (THRIVE) Could Decrease the Incidence of Oxygen Desaturation During Suspension Laryngoscopy: a Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Validity of Somatosensori Remediation for Postural Control in the Treatment of Ehlers-Danlos Syndrome Hypermobility Type (hEDS)</t>
-  </si>
-  <si>
-    <t>ELECTRODIAB2: Effect of an Outpatient Program of Bi-quadricipital Electrostimulation on Glucose Profile of Sedentary Patients With Type 2 Diabetes.</t>
-  </si>
-  <si>
-    <t>Assessment of the Impact of Virtual Reality on Patient Anxiety During Dental Avulsions Under Local Anesthesia</t>
-  </si>
-  <si>
-    <t>Cognitive, Emotional, Physiological, Chronobiological and Genetic Effects of a Time Underground Isolation</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics of Apixaban in Subjects With End-stage Renal Disease Treated With Peritoneal Dialysis: the ApiDP Study</t>
-  </si>
-  <si>
-    <t>Study of the Predictive Markers and the Pathophysiological Mechanisms of Alzheimer's Disease: Transverse and Longitudinal Approach in Anatomical and Functional Multimodal Imaging</t>
+    <t>Evaluation of Immersion in Virtual Reality in the Management of Anxiety, Then Pain, of Patients in Interventional Imaging.</t>
+  </si>
+  <si>
+    <t>Evaluation of Myocardial Reperfusion and Residual Thrombotic Burden After Primary PCI for STEMI in Patients With High on Ticagrelor Platelet Reactivity Treated by IV Cangrelor Versus Ticagrelor Alone</t>
   </si>
   <si>
     <t>Efficacy of Simulation-based Neonatal Echocardiography Training: a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Feasibility and Evaluation Study of the UPLUG Hemodialysis Connection Device</t>
-  </si>
-  <si>
-    <t>Follow-up of the Nasal Microbiome and Viral Infections in Newborns Hospitalised in Neonatology in the University Hospital of Caen, France : Metatranscriptomics Approach by Next Generation Sequencing From Nasal Swabs.</t>
-  </si>
-  <si>
-    <t>Evaluation of Myocardial Reperfusion and Residual Thrombotic Burden After Primary PCI for STEMI in Patients With High on Ticagrelor Platelet Reactivity Treated by IV Cangrelor Versus Ticagrelor Alone</t>
-  </si>
-  <si>
-    <t>Evaluation of Immersion in Virtual Reality in the Management of Anxiety, Then Pain, of Patients in Interventional Imaging.</t>
   </si>
   <si>
     <t>Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée. 
  Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée.</t>
   </si>
   <si>
+    <t>Longitudinal Analysis of Right Ventricular Remodeling in Response to Prolonged Strength Training Using 3D-echocardiography</t>
+  </si>
+  <si>
+    <t>Follow-up of the Nasal Microbiome and Viral Infections in Newborns Hospitalised in Neonatology in the University Hospital of Caen, France : Metatranscriptomics Approach by Next Generation Sequencing From Nasal Swabs.</t>
+  </si>
+  <si>
     <t>Usefulness of Sterile Adhesive Dressing at the Exit-site of Peritoneal Dialysis Catheter: a Pilot Study</t>
   </si>
   <si>
-    <t>Longitudinal Analysis of Right Ventricular Remodeling in Response to Prolonged Strength Training Using 3D-echocardiography</t>
-  </si>
-  <si>
-    <t>Maggot Therapy for Wound Debridement: a Randomized Multicentric Double-blind Trial</t>
+    <t>Feasibility and Evaluation Study of the UPLUG Hemodialysis Connection Device</t>
   </si>
   <si>
     <t>Essai randomisé, contrôlé, en double aveugle, de l'anakinra contre placebo, en adjonction à la corticothérapie dans l'artérite à cellules géantes. 
  Essai randomisé, contrôlé, en double aveugle, de l'anakinra contre placebo, en adjonction à la corticothérapie dans l'artérite à cellules géantes.</t>
   </si>
   <si>
+    <t>Maggot Therapy for Wound Debridement: a Randomized Multicentric Double-blind Trial</t>
+  </si>
+  <si>
     <t>CATHEDIA</t>
   </si>
   <si>
@@ -676,39 +676,39 @@
     <t>MAG 2002</t>
   </si>
   <si>
+    <t>HEMOTOL</t>
+  </si>
+  <si>
     <t>PHAD</t>
   </si>
   <si>
-    <t>HEMOTOL</t>
-  </si>
-  <si>
     <t>Laryngotest</t>
   </si>
   <si>
+    <t>ENDOGLUcide</t>
+  </si>
+  <si>
     <t>TISSPRO</t>
   </si>
   <si>
-    <t>ENDOGLUcide</t>
-  </si>
-  <si>
     <t>FLT</t>
   </si>
   <si>
+    <t>NATRIPHAR</t>
+  </si>
+  <si>
+    <t>SOLISO</t>
+  </si>
+  <si>
+    <t>HYPONCO</t>
+  </si>
+  <si>
     <t>AutoSop-Foie</t>
   </si>
   <si>
-    <t>HYPONCO</t>
-  </si>
-  <si>
     <t>HeMO</t>
   </si>
   <si>
-    <t>SOLISO</t>
-  </si>
-  <si>
-    <t>NATRIPHAR</t>
-  </si>
-  <si>
     <t>ECHOCARPE</t>
   </si>
   <si>
@@ -721,70 +721,73 @@
     <t>TMS HALLU</t>
   </si>
   <si>
+    <t>HYDRONAUT</t>
+  </si>
+  <si>
+    <t>3DPICK</t>
+  </si>
+  <si>
+    <t>DROITDEVANT</t>
+  </si>
+  <si>
+    <t>COSI@PFC</t>
+  </si>
+  <si>
     <t>ELECTRODIAB</t>
   </si>
   <si>
-    <t>COSI@PFC</t>
-  </si>
-  <si>
-    <t>3DPICK</t>
-  </si>
-  <si>
-    <t>DROITDEVANT</t>
-  </si>
-  <si>
-    <t>HYDRONAUT</t>
+    <t>3SITES</t>
   </si>
   <si>
     <t>SEME</t>
   </si>
   <si>
+    <t>O-Mel-Sora</t>
+  </si>
+  <si>
+    <t>Extu-Cough</t>
+  </si>
+  <si>
     <t>HYDRAREA</t>
   </si>
   <si>
-    <t>O-Mel-Sora</t>
+    <t>TMS-Hz</t>
   </si>
   <si>
     <t>TEP-READ</t>
   </si>
   <si>
-    <t>TMS-Hz</t>
-  </si>
-  <si>
-    <t>3SITES</t>
-  </si>
-  <si>
-    <t>Extu-Cough</t>
+    <t>PANEX3</t>
+  </si>
+  <si>
+    <t>STEROSENS</t>
   </si>
   <si>
     <t>e-TEMP</t>
   </si>
   <si>
+    <t>FLUDATEP</t>
+  </si>
+  <si>
     <t>D-TEP</t>
-  </si>
-  <si>
-    <t>FLUDATEP</t>
-  </si>
-  <si>
-    <t>PANEX3</t>
-  </si>
-  <si>
-    <t>STEROSENS</t>
   </si>
   <si>
     <t>WATER-DAY 
  WATER-DAY</t>
   </si>
   <si>
+    <t>DAPTODP</t>
+  </si>
+  <si>
     <t>OPVI</t>
   </si>
   <si>
-    <t>DAPTODP</t>
-  </si>
-  <si>
     <t>FAST DOGS</t>
   </si>
   <si>
+    <t>ISOSTIFF</t>
+  </si>
+  <si>
     <t>FREE BOLI</t>
   </si>
   <si>
@@ -794,60 +797,60 @@
     <t>CFC</t>
   </si>
   <si>
+    <t>MAGNETIK</t>
+  </si>
+  <si>
     <t>ADDGEST</t>
   </si>
   <si>
-    <t>MAGNETIK</t>
-  </si>
-  <si>
-    <t>ISOSTIFF</t>
+    <t>HypoCampus</t>
+  </si>
+  <si>
+    <t>MAESTRO</t>
+  </si>
+  <si>
+    <t>EQOLE</t>
+  </si>
+  <si>
+    <t>SAPAAD</t>
   </si>
   <si>
     <t>VigiP-SEP</t>
   </si>
   <si>
-    <t>MAESTRO</t>
-  </si>
-  <si>
-    <t>HypoCampus</t>
+    <t>MUSINDUC</t>
   </si>
   <si>
     <t>SOMBOX</t>
   </si>
   <si>
-    <t>SAPAAD</t>
-  </si>
-  <si>
-    <t>MUSINDUC</t>
-  </si>
-  <si>
-    <t>EQOLE</t>
-  </si>
-  <si>
     <t>PASIPD-Fr</t>
   </si>
   <si>
+    <t>PICUPID</t>
+  </si>
+  <si>
+    <t>PDL</t>
+  </si>
+  <si>
+    <t>GRAVIDOSE</t>
+  </si>
+  <si>
+    <t>GDS</t>
+  </si>
+  <si>
     <t>AmbuLUS</t>
   </si>
   <si>
-    <t>PICUPID</t>
-  </si>
-  <si>
-    <t>PDL</t>
-  </si>
-  <si>
-    <t>GDS</t>
-  </si>
-  <si>
     <t>SEPREV</t>
   </si>
   <si>
-    <t>GRAVIDOSE</t>
-  </si>
-  <si>
     <t>SOLUBIC</t>
   </si>
   <si>
+    <t>EXTUBO2</t>
+  </si>
+  <si>
     <t>DAPTOSC</t>
   </si>
   <si>
@@ -857,87 +860,84 @@
     <t>AmbuCineView</t>
   </si>
   <si>
-    <t>EXTUBO2</t>
-  </si>
-  <si>
     <t>BOM-ZEN</t>
   </si>
   <si>
+    <t>VITALISED</t>
+  </si>
+  <si>
+    <t>REVIDEN</t>
+  </si>
+  <si>
+    <t>ApiDP</t>
+  </si>
+  <si>
+    <t>DEEPTIME</t>
+  </si>
+  <si>
+    <t>IMAP+</t>
+  </si>
+  <si>
+    <t>ELECTRODIAB2</t>
+  </si>
+  <si>
     <t>optilaryngo</t>
   </si>
   <si>
-    <t>VITALISED</t>
-  </si>
-  <si>
-    <t>ELECTRODIAB2</t>
-  </si>
-  <si>
-    <t>REVIDEN</t>
-  </si>
-  <si>
-    <t>DEEPTIME</t>
-  </si>
-  <si>
-    <t>ApiDP</t>
-  </si>
-  <si>
-    <t>IMAP+</t>
+    <t>IRVARI</t>
+  </si>
+  <si>
+    <t>ERMIT</t>
   </si>
   <si>
     <t>SimuEchoNeo</t>
-  </si>
-  <si>
-    <t>UPLUG-SAFE</t>
-  </si>
-  <si>
-    <t>NEOBIOME</t>
-  </si>
-  <si>
-    <t>ERMIT</t>
-  </si>
-  <si>
-    <t>IRVARI</t>
   </si>
   <si>
     <t>ERMIT 
  ERMIT</t>
   </si>
   <si>
+    <t>FORCE-VD</t>
+  </si>
+  <si>
+    <t>NEOBIOME</t>
+  </si>
+  <si>
     <t>PANCADIPE</t>
   </si>
   <si>
-    <t>FORCE-VD</t>
+    <t>UPLUG-SAFE</t>
   </si>
   <si>
     <t>AUTOCARD</t>
-  </si>
-  <si>
-    <t>CORTICOG</t>
-  </si>
-  <si>
-    <t>TEPVAD</t>
-  </si>
-  <si>
-    <t>IPSI2</t>
-  </si>
-  <si>
-    <t>IQSCINTIMYOC</t>
-  </si>
-  <si>
-    <t>NUQUE2</t>
-  </si>
-  <si>
-    <t>MAGGOT</t>
-  </si>
-  <si>
-    <t>ADRECARD</t>
-  </si>
-  <si>
-    <t>DYMCO</t>
   </si>
   <si>
     <t>GiAnT 
  GiAnT</t>
+  </si>
+  <si>
+    <t>CORTICOG</t>
+  </si>
+  <si>
+    <t>IPSI2</t>
+  </si>
+  <si>
+    <t>TEPVAD</t>
+  </si>
+  <si>
+    <t>MAGGOT</t>
+  </si>
+  <si>
+    <t>IQSCINTIMYOC</t>
+  </si>
+  <si>
+    <t>NUQUE2</t>
+  </si>
+  <si>
+    <t>ADRECARD</t>
+  </si>
+  <si>
+    <t>DYMCO</t>
   </si>
   <si>
     <t>DRUG</t>
@@ -1387,6 +1387,9 @@
       <c r="G3" t="s">
         <v>136</v>
       </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
       <c r="I3" t="s">
         <v>307</v>
       </c>
@@ -1407,9 +1410,6 @@
       <c r="G4" t="s">
         <v>137</v>
       </c>
-      <c r="H4" t="s">
-        <v>216</v>
-      </c>
       <c r="I4" t="s">
         <v>307</v>
       </c>
@@ -1487,8 +1487,8 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>111</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>121</v>
@@ -1498,6 +1498,9 @@
       </c>
       <c r="H8" t="s">
         <v>219</v>
+      </c>
+      <c r="I8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1507,8 +1510,8 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
+      <c r="D9" t="s">
+        <v>111</v>
       </c>
       <c r="F9" t="s">
         <v>121</v>
@@ -1518,9 +1521,6 @@
       </c>
       <c r="H9" t="s">
         <v>220</v>
-      </c>
-      <c r="I9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1548,13 +1548,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>122</v>
@@ -1565,16 +1565,19 @@
       <c r="H11" t="s">
         <v>222</v>
       </c>
+      <c r="I11" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -1584,9 +1587,6 @@
       </c>
       <c r="H12" t="s">
         <v>223</v>
-      </c>
-      <c r="I12" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1648,6 +1648,9 @@
       <c r="G15" t="s">
         <v>148</v>
       </c>
+      <c r="H15" t="s">
+        <v>225</v>
+      </c>
       <c r="I15" t="s">
         <v>309</v>
       </c>
@@ -1669,10 +1672,10 @@
         <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1691,19 +1694,16 @@
       <c r="G17" t="s">
         <v>150</v>
       </c>
-      <c r="H17" t="s">
-        <v>226</v>
-      </c>
       <c r="I17" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1741,15 +1741,15 @@
         <v>228</v>
       </c>
       <c r="I19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1873,7 +1873,7 @@
         <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1889,6 +1889,9 @@
       <c r="F26" t="s">
         <v>125</v>
       </c>
+      <c r="G26" t="s">
+        <v>157</v>
+      </c>
       <c r="H26" t="s">
         <v>235</v>
       </c>
@@ -1909,9 +1912,6 @@
       <c r="F27" t="s">
         <v>125</v>
       </c>
-      <c r="G27" t="s">
-        <v>157</v>
-      </c>
       <c r="H27" t="s">
         <v>236</v>
       </c>
@@ -1956,15 +1956,15 @@
         <v>238</v>
       </c>
       <c r="I29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -1979,7 +1979,7 @@
         <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1995,11 +1995,14 @@
       <c r="F31" t="s">
         <v>126</v>
       </c>
+      <c r="G31" t="s">
+        <v>159</v>
+      </c>
       <c r="H31" t="s">
         <v>240</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2024,10 +2027,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
@@ -2035,11 +2038,14 @@
       <c r="F33" t="s">
         <v>126</v>
       </c>
+      <c r="G33" t="s">
+        <v>160</v>
+      </c>
       <c r="H33" t="s">
         <v>242</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2055,22 +2061,19 @@
       <c r="F34" t="s">
         <v>126</v>
       </c>
-      <c r="G34" t="s">
-        <v>159</v>
-      </c>
       <c r="H34" t="s">
         <v>243</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -2079,21 +2082,21 @@
         <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
         <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -2101,22 +2104,19 @@
       <c r="F36" t="s">
         <v>126</v>
       </c>
-      <c r="G36" t="s">
-        <v>161</v>
-      </c>
       <c r="H36" t="s">
         <v>245</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2151,7 +2151,7 @@
         <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2174,15 +2174,15 @@
         <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -2197,7 +2197,7 @@
         <v>249</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2217,7 +2217,7 @@
         <v>250</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2242,10 +2242,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
@@ -2260,15 +2260,15 @@
         <v>252</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
@@ -2283,7 +2283,7 @@
         <v>253</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2346,7 +2346,7 @@
         <v>255</v>
       </c>
       <c r="I47" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2356,8 +2356,8 @@
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" t="s">
-        <v>114</v>
+      <c r="C48" t="s">
+        <v>60</v>
       </c>
       <c r="F48" t="s">
         <v>129</v>
@@ -2368,16 +2368,19 @@
       <c r="H48" t="s">
         <v>256</v>
       </c>
+      <c r="I48" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
       </c>
       <c r="F49" t="s">
         <v>129</v>
@@ -2388,16 +2391,13 @@
       <c r="H49" t="s">
         <v>257</v>
       </c>
-      <c r="I49" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
@@ -2412,7 +2412,7 @@
         <v>258</v>
       </c>
       <c r="I50" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2458,15 +2458,15 @@
         <v>260</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
@@ -2500,8 +2500,11 @@
       <c r="G54" t="s">
         <v>176</v>
       </c>
+      <c r="H54" t="s">
+        <v>262</v>
+      </c>
       <c r="I54" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2520,11 +2523,8 @@
       <c r="G55" t="s">
         <v>177</v>
       </c>
-      <c r="H55" t="s">
-        <v>262</v>
-      </c>
       <c r="I55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2552,10 +2552,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -2570,15 +2570,15 @@
         <v>264</v>
       </c>
       <c r="I57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
@@ -2639,7 +2639,7 @@
         <v>267</v>
       </c>
       <c r="I60" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2708,15 +2708,15 @@
         <v>270</v>
       </c>
       <c r="I63" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
@@ -2727,19 +2727,16 @@
       <c r="G64" t="s">
         <v>186</v>
       </c>
-      <c r="H64" t="s">
-        <v>271</v>
-      </c>
       <c r="I64" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
@@ -2750,16 +2747,19 @@
       <c r="G65" t="s">
         <v>187</v>
       </c>
+      <c r="H65" t="s">
+        <v>271</v>
+      </c>
       <c r="I65" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
@@ -2770,16 +2770,19 @@
       <c r="G66" t="s">
         <v>188</v>
       </c>
+      <c r="H66" t="s">
+        <v>272</v>
+      </c>
       <c r="I66" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>78</v>
@@ -2790,11 +2793,8 @@
       <c r="G67" t="s">
         <v>189</v>
       </c>
-      <c r="H67" t="s">
-        <v>272</v>
-      </c>
       <c r="I67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2817,7 +2817,7 @@
         <v>273</v>
       </c>
       <c r="I68" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2886,15 +2886,15 @@
         <v>276</v>
       </c>
       <c r="I71" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
@@ -2932,15 +2932,15 @@
         <v>278</v>
       </c>
       <c r="I73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
@@ -2955,7 +2955,7 @@
         <v>279</v>
       </c>
       <c r="I74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2997,6 +2997,9 @@
       <c r="G76" t="s">
         <v>198</v>
       </c>
+      <c r="H76" t="s">
+        <v>281</v>
+      </c>
       <c r="I76" t="s">
         <v>309</v>
       </c>
@@ -3018,10 +3021,10 @@
         <v>199</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3041,10 +3044,10 @@
         <v>200</v>
       </c>
       <c r="H78" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I78" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3064,18 +3067,18 @@
         <v>201</v>
       </c>
       <c r="H79" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I79" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
         <v>91</v>
@@ -3087,10 +3090,10 @@
         <v>202</v>
       </c>
       <c r="H80" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3109,11 +3112,8 @@
       <c r="G81" t="s">
         <v>203</v>
       </c>
-      <c r="H81" t="s">
-        <v>285</v>
-      </c>
       <c r="I81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3136,15 +3136,15 @@
         <v>286</v>
       </c>
       <c r="I82" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>94</v>
@@ -3159,7 +3159,7 @@
         <v>287</v>
       </c>
       <c r="I83" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3182,7 +3182,7 @@
         <v>288</v>
       </c>
       <c r="I84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3205,7 +3205,7 @@
         <v>289</v>
       </c>
       <c r="I85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3238,8 +3238,8 @@
       <c r="B87" t="s">
         <v>14</v>
       </c>
-      <c r="C87" t="s">
-        <v>98</v>
+      <c r="D87" t="s">
+        <v>115</v>
       </c>
       <c r="F87" t="s">
         <v>134</v>
@@ -3250,9 +3250,6 @@
       <c r="H87" t="s">
         <v>291</v>
       </c>
-      <c r="I87" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
@@ -3262,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88" t="s">
         <v>134</v>
@@ -3284,8 +3281,8 @@
       <c r="B89" t="s">
         <v>14</v>
       </c>
-      <c r="D89" t="s">
-        <v>115</v>
+      <c r="C89" t="s">
+        <v>99</v>
       </c>
       <c r="F89" t="s">
         <v>134</v>
@@ -3296,6 +3293,9 @@
       <c r="H89" t="s">
         <v>293</v>
       </c>
+      <c r="I89" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -3340,7 +3340,7 @@
         <v>295</v>
       </c>
       <c r="I91" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3367,15 +3367,15 @@
       <c r="B93" t="s">
         <v>14</v>
       </c>
-      <c r="C93" t="s">
-        <v>103</v>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="G93" t="s">
+        <v>214</v>
       </c>
       <c r="H93" t="s">
         <v>297</v>
       </c>
-      <c r="I93" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
@@ -3385,7 +3385,7 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H94" t="s">
         <v>298</v>
@@ -3402,7 +3402,7 @@
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H95" t="s">
         <v>299</v>
@@ -3419,24 +3419,27 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H96" t="s">
         <v>300</v>
       </c>
       <c r="I96" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s">
+        <v>215</v>
       </c>
       <c r="H97" t="s">
         <v>301</v>
@@ -3447,22 +3450,19 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
-      </c>
-      <c r="G98" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="H98" t="s">
         <v>302</v>
       </c>
       <c r="I98" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3473,13 +3473,13 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H99" t="s">
         <v>303</v>
       </c>
       <c r="I99" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3490,13 +3490,13 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H100" t="s">
         <v>304</v>
       </c>
       <c r="I100" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3506,14 +3506,14 @@
       <c r="B101" t="s">
         <v>14</v>
       </c>
-      <c r="D101" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" t="s">
-        <v>215</v>
+      <c r="C101" t="s">
+        <v>110</v>
       </c>
       <c r="H101" t="s">
         <v>305</v>
+      </c>
+      <c r="I101" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage2/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="331">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT00405171</t>
@@ -100,40 +100,43 @@
     <t>NCT01074619</t>
   </si>
   <si>
+    <t>NCT01518075</t>
+  </si>
+  <si>
+    <t>NCT01251666</t>
+  </si>
+  <si>
+    <t>NCT01231828</t>
+  </si>
+  <si>
+    <t>NCT01022697</t>
+  </si>
+  <si>
     <t>NCT01212211</t>
   </si>
   <si>
-    <t>NCT01022697</t>
-  </si>
-  <si>
-    <t>NCT01518075</t>
-  </si>
-  <si>
     <t>NCT01200134</t>
   </si>
   <si>
-    <t>NCT01231828</t>
-  </si>
-  <si>
-    <t>NCT01251666</t>
+    <t>NCT01535716</t>
+  </si>
+  <si>
+    <t>NCT02525315</t>
+  </si>
+  <si>
+    <t>NCT01466439</t>
   </si>
   <si>
     <t>NCT02514317</t>
   </si>
   <si>
-    <t>NCT01535716</t>
-  </si>
-  <si>
-    <t>NCT01466439</t>
-  </si>
-  <si>
-    <t>NCT02525315</t>
+    <t>NCT02563236</t>
   </si>
   <si>
     <t>NCT02563262</t>
   </si>
   <si>
-    <t>NCT02563236</t>
+    <t>NCT02510521</t>
   </si>
   <si>
     <t>NCT02517138</t>
@@ -142,28 +145,28 @@
     <t>NCT02517190</t>
   </si>
   <si>
-    <t>NCT02510521</t>
+    <t>NCT02517736</t>
+  </si>
+  <si>
+    <t>NCT02524574</t>
+  </si>
+  <si>
+    <t>NCT01564745</t>
   </si>
   <si>
     <t>NCT01479153</t>
   </si>
   <si>
+    <t>NCT01636089</t>
+  </si>
+  <si>
     <t>NCT02510755</t>
   </si>
   <si>
-    <t>NCT02517736</t>
-  </si>
-  <si>
-    <t>NCT01564745</t>
-  </si>
-  <si>
-    <t>NCT01636089</t>
-  </si>
-  <si>
     <t>NCT01022489</t>
   </si>
   <si>
-    <t>NCT02524574</t>
+    <t>NCT02910479</t>
   </si>
   <si>
     <t>NCT02343601</t>
@@ -172,13 +175,13 @@
     <t>NCT02847806</t>
   </si>
   <si>
-    <t>NCT02910479</t>
+    <t>NCT02510703</t>
   </si>
   <si>
     <t>NCT02128945</t>
   </si>
   <si>
-    <t>NCT02510703</t>
+    <t>NCT03087825</t>
   </si>
   <si>
     <t>NCT02000414</t>
@@ -187,165 +190,165 @@
     <t>NCT02207296</t>
   </si>
   <si>
-    <t>NCT03087825</t>
-  </si>
-  <si>
     <t>NCT02510677</t>
   </si>
   <si>
+    <t>NCT03567070</t>
+  </si>
+  <si>
+    <t>NCT03407209</t>
+  </si>
+  <si>
+    <t>NCT02292316</t>
+  </si>
+  <si>
+    <t>NCT02773719</t>
+  </si>
+  <si>
     <t>NCT04191759</t>
   </si>
   <si>
-    <t>NCT03407209</t>
-  </si>
-  <si>
-    <t>NCT02292316</t>
-  </si>
-  <si>
-    <t>NCT02773719</t>
-  </si>
-  <si>
-    <t>NCT03567070</t>
+    <t>NCT03725111</t>
+  </si>
+  <si>
+    <t>NCT03941847</t>
+  </si>
+  <si>
+    <t>NCT02799511</t>
+  </si>
+  <si>
+    <t>NCT02832349</t>
+  </si>
+  <si>
+    <t>NCT03978026</t>
+  </si>
+  <si>
+    <t>NCT03029897</t>
   </si>
   <si>
     <t>NCT02789007</t>
   </si>
   <si>
-    <t>NCT02799511</t>
-  </si>
-  <si>
-    <t>NCT03725111</t>
-  </si>
-  <si>
-    <t>NCT02832349</t>
-  </si>
-  <si>
     <t>NCT02751021</t>
   </si>
   <si>
-    <t>NCT03029897</t>
-  </si>
-  <si>
-    <t>NCT03941847</t>
-  </si>
-  <si>
-    <t>NCT03978026</t>
-  </si>
-  <si>
     <t>NCT04061616</t>
   </si>
   <si>
+    <t>NCT03539185</t>
+  </si>
+  <si>
+    <t>NCT01805336</t>
+  </si>
+  <si>
+    <t>NCT03963856</t>
+  </si>
+  <si>
+    <t>NCT04352283</t>
+  </si>
+  <si>
     <t>NCT05629247</t>
   </si>
   <si>
+    <t>NCT04602234</t>
+  </si>
+  <si>
+    <t>NCT05971615</t>
+  </si>
+  <si>
     <t>NCT05036200</t>
   </si>
   <si>
-    <t>NCT04352283</t>
-  </si>
-  <si>
-    <t>NCT03963856</t>
-  </si>
-  <si>
-    <t>NCT05971615</t>
-  </si>
-  <si>
-    <t>NCT03539185</t>
-  </si>
-  <si>
-    <t>NCT04602234</t>
-  </si>
-  <si>
-    <t>NCT01805336</t>
+    <t>NCT04434300</t>
   </si>
   <si>
     <t>NCT04244448</t>
   </si>
   <si>
+    <t>NCT04238572</t>
+  </si>
+  <si>
+    <t>NCT04685512</t>
+  </si>
+  <si>
     <t>NCT04879290</t>
   </si>
   <si>
-    <t>NCT04434300</t>
-  </si>
-  <si>
-    <t>NCT04685512</t>
-  </si>
-  <si>
-    <t>NCT04238572</t>
-  </si>
-  <si>
     <t>NCT04168983</t>
   </si>
   <si>
     <t>NCT04020107</t>
   </si>
   <si>
+    <t>NCT01638949</t>
+  </si>
+  <si>
+    <t>NCT04006093</t>
+  </si>
+  <si>
     <t>NCT05963750</t>
   </si>
   <si>
-    <t>NCT04006093</t>
+    <t>NCT02157480</t>
+  </si>
+  <si>
+    <t>NCT03843580</t>
   </si>
   <si>
     <t>NCT05603780</t>
   </si>
   <si>
-    <t>NCT01638949</t>
-  </si>
-  <si>
     <t>NCT05538442</t>
   </si>
   <si>
-    <t>NCT02157480</t>
-  </si>
-  <si>
-    <t>NCT03843580</t>
+    <t>NCT03677063</t>
+  </si>
+  <si>
+    <t>NCT04187170</t>
+  </si>
+  <si>
+    <t>NCT06442683</t>
+  </si>
+  <si>
+    <t>NCT05717283</t>
+  </si>
+  <si>
+    <t>NCT04927949</t>
   </si>
   <si>
     <t>NCT05966402</t>
   </si>
   <si>
-    <t>NCT04927949</t>
-  </si>
-  <si>
-    <t>NCT06442683</t>
-  </si>
-  <si>
-    <t>NCT04187170</t>
-  </si>
-  <si>
-    <t>NCT05717283</t>
-  </si>
-  <si>
-    <t>NCT03677063</t>
-  </si>
-  <si>
     <t>NCT05419258</t>
   </si>
   <si>
+    <t>NCT05565989</t>
+  </si>
+  <si>
     <t>NCT02517177</t>
   </si>
   <si>
+    <t>NCT01211236</t>
+  </si>
+  <si>
+    <t>NCT02510872</t>
+  </si>
+  <si>
     <t>NCT02516787</t>
   </si>
   <si>
     <t>NCT02524535</t>
   </si>
   <si>
-    <t>NCT02510872</t>
-  </si>
-  <si>
-    <t>NCT01211236</t>
-  </si>
-  <si>
     <t>NCT02524600</t>
   </si>
   <si>
+    <t>NCT02515812</t>
+  </si>
+  <si>
     <t>NCT02510859</t>
   </si>
   <si>
-    <t>NCT02515812</t>
-  </si>
-  <si>
     <t>NCT02518880</t>
   </si>
   <si>
@@ -364,9 +367,21 @@
     <t>2020-003621-36</t>
   </si>
   <si>
+    <t>2018-000263-92</t>
+  </si>
+  <si>
     <t>2015-005804-27</t>
   </si>
   <si>
+    <t>2017-000429-10</t>
+  </si>
+  <si>
+    <t>2019-004884-32</t>
+  </si>
+  <si>
+    <t>2020-002531-30</t>
+  </si>
+  <si>
     <t>2006</t>
   </si>
   <si>
@@ -421,6 +436,12 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Efavirenz to Nevirapine Switch in HIV-1 Infected Patients With Severe Dyslipidemia: A Randomized Controlled Study</t>
   </si>
   <si>
@@ -460,185 +481,185 @@
     <t>Effects of Memantine on Cognitive Disorders of Relapsing-remitting Multiple Sclerosis</t>
   </si>
   <si>
+    <t>Breathing-swallowing Interaction in Chronic Obstructive Pulmonary Disease (COPD) Patients Hospitalized in Intensive Care Unit for an Acute Exacerbation: Impact of Non Invasive Ventilation. Physiological Evaluation</t>
+  </si>
+  <si>
+    <t>Comparison of Performances of Two Automated Immunochemical Faecal Occult Blood Tests in Colorectal Cancer Screening, in Reference to Usual Care Guaiac Test</t>
+  </si>
+  <si>
+    <t>Method of Assessment of Driving Ability in Patients Suffering From Wakefulness Pathologies. Impact of Lactulose and Carnitine Treatment.</t>
+  </si>
+  <si>
+    <t>Randomized Control Study : Evaluation of the Benefits of Glucose Drinks During Childbirth</t>
+  </si>
+  <si>
     <t>Hyponatremia in the Elderly: Benefit From a Change in Drug Therapy?</t>
   </si>
   <si>
-    <t>Randomized Control Study : Evaluation of the Benefits of Glucose Drinks During Childbirth</t>
-  </si>
-  <si>
-    <t>Breathing-swallowing Interaction in Chronic Obstructive Pulmonary Disease (COPD) Patients Hospitalized in Intensive Care Unit for an Acute Exacerbation: Impact of Non Invasive Ventilation. Physiological Evaluation</t>
-  </si>
-  <si>
     <t>Hypoxia Diagnosis and Evaluation Using F-MISO PET and Biomarkers in Brain Tumors</t>
   </si>
   <si>
-    <t>Method of Assessment of Driving Ability in Patients Suffering From Wakefulness Pathologies. Impact of Lactulose and Carnitine Treatment.</t>
-  </si>
-  <si>
-    <t>Comparison of Performances of Two Automated Immunochemical Faecal Occult Blood Tests in Colorectal Cancer Screening, in Reference to Usual Care Guaiac Test</t>
+    <t>Does Goal-directed Hemodynamic Therapy Driven by Endotracheal Cardiac Output Monitoring System During Surgical Intervention Reduce Hospital Stay and Major Adverse Cardiac Events Following Cardiac Surgery?</t>
+  </si>
+  <si>
+    <t>Evaluation of Effect of Low and High-frequencies of Repetitive Transcranial Magnetic Stimulation (rTMS) by the Suppression of P50 Evoked Potential Component (rTMS-P50)</t>
   </si>
   <si>
     <t>Ultrasound-assisted Percutaneous Release of Carpal Tunnel Syndrome</t>
   </si>
   <si>
-    <t>Does Goal-directed Hemodynamic Therapy Driven by Endotracheal Cardiac Output Monitoring System During Surgical Intervention Reduce Hospital Stay and Major Adverse Cardiac Events Following Cardiac Surgery?</t>
-  </si>
-  <si>
-    <t>Evaluation of Effect of Low and High-frequencies of Repetitive Transcranial Magnetic Stimulation (rTMS) by the Suppression of P50 Evoked Potential Component (rTMS-P50)</t>
-  </si>
-  <si>
     <t>Evaluation of 3D Selection Tasks in Parabolic Flight Conditions: Pointing Task in Augmented Reality User Interfaces</t>
   </si>
   <si>
+    <t>Cough Determinants in Mechanically Ventilated Patients: a Physiological Study</t>
+  </si>
+  <si>
     <t>Comparison of Subclavian, Femoral and Internal Jugular Venous Catheterization in Term of Complications in the Intensive Care Unit: a Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Stress and Emotional Memory : Functional Neuroanatomy of Post-traumatic Stress Disorder in Adolescents</t>
   </si>
   <si>
-    <t>Cough Determinants in Mechanically Ventilated Patients: a Physiological Study</t>
-  </si>
-  <si>
     <t>Evaluation of Repetitive Transcranial Magnetic Stimulation (rTMS) at High Frequency With Neuronavigation in the Treatment of Auditory Hallucinations : A Randomized Multicentric Controlled Study</t>
   </si>
   <si>
-    <t>Perioperative Hemodynamic Optimization Using the Photoplethysmography in Colorectal Surgery : A Randomized Controlled Study</t>
-  </si>
-  <si>
     <t>Phase 1 Study Evaluating the Relevance and Reliability of Gastrointestinal Temperature Measurements From a New Device (E-celsius)</t>
-  </si>
-  <si>
-    <t>Dosimetry and Biodistribution of [18F]-Fludarabine in Lymphoid Malignancies</t>
   </si>
   <si>
     <t>A comparative dynamic study of myocardial perfusion reserve explored by cardiac WATER labelled O-15 -PET vs Tc99mibi D-SPECT in coronAry arterY disease. Protocol WATER -DAY 
  Evaluation de la réserve Coronaire par la TEP à l’H215O et la coronarographie chez les patients coronariens : Etude comparative avec la caméra SPECTRUM-DYNAMICS au 99mTc-mibi. Protocol WATER -DAY.</t>
   </si>
   <si>
+    <t>Perioperative Hemodynamic Optimization Using the Photoplethysmography in Colorectal Surgery : A Randomized Controlled Study</t>
+  </si>
+  <si>
+    <t>Dosimetry and Biodistribution of [18F]-Fludarabine in Lymphoid Malignancies</t>
+  </si>
+  <si>
+    <t>Effect of Preoxygenation With Spontaneous Breathing or Noninvasive Positive Pressure Ventilation With or Without a Calibrated Leak. An Experimental Study in Healthy Volunteers</t>
+  </si>
+  <si>
     <t>Pharmacokinetics Study of Intraperitoneal Administration of Daptomycin in Patients With Peritoneal Dialysis and Peritoneal Infection</t>
   </si>
   <si>
     <t>Operative Hemodynamic Optimization Using the Plethysmographic Variability Index During Orthopedic Surgery : a Multicentric Prospective Randomized Controlled Study</t>
   </si>
   <si>
-    <t>Effect of Preoxygenation With Spontaneous Breathing or Noninvasive Positive Pressure Ventilation With or Without a Calibrated Leak. An Experimental Study in Healthy Volunteers</t>
+    <t>Pregnancy and Use of Psychoactive Substances: The Influence of Representations of Care on Care.</t>
+  </si>
+  <si>
+    <t>Compared Efficacy of Patient-controlled Epidural Analgesia With or Without Automatic Boluses</t>
+  </si>
+  <si>
+    <t>Bénéfices de la perfusion continue de lidocaïne intraveineuse en chirurgie bariatrique : une étude randomisée prospective contre placebo</t>
+  </si>
+  <si>
+    <t>Falls With Fracture : Role of Cognitive Disorders and Comparison With Bone Fragility</t>
+  </si>
+  <si>
+    <t>Effect of the Intervention of Biofields Therapy on Warts of the Hands and Feet in Adults: a Prospective, Randomized, Double-blind Trial</t>
   </si>
   <si>
     <t>Reliability of the Passive Properties of the Calf Muscles in Healthy Subjects Assessed Using Isokinetic Device</t>
   </si>
   <si>
-    <t>Compared Efficacy of Patient-controlled Epidural Analgesia With or Without Automatic Boluses</t>
-  </si>
-  <si>
-    <t>Bénéfices de la perfusion continue de lidocaïne intraveineuse en chirurgie bariatrique : une étude randomisée prospective contre placebo</t>
-  </si>
-  <si>
-    <t>Falls With Fracture : Role of Cognitive Disorders and Comparison With Bone Fragility</t>
-  </si>
-  <si>
-    <t>Effect of the Intervention of Biofields Therapy on Warts of the Hands and Feet in Adults: a Prospective, Randomized, Double-blind Trial</t>
-  </si>
-  <si>
-    <t>Pregnancy and Use of Psychoactive Substances: The Influence of Representations of Care on Care.</t>
+    <t>Haemodynamics Variations of Transcutaneous Oxygen in Patient With Arterio-venous Leg Ulcers Under Venous Compression (COMPULCE Study)</t>
+  </si>
+  <si>
+    <t>Musinduc : Impact of Music During the Period of Anaesthetic Induction - a Randomized Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Biomarkers for the Diagnosis of Transient Ischemic Attack</t>
+  </si>
+  <si>
+    <t>Impact of Educational Actions on the Quality Of Life of Epileptic Patients</t>
+  </si>
+  <si>
+    <t>Evaluation de l'efficacité Sur la Vigilance et Les Performances de Conduite simulée d'Une Sieste effectuée Dans Des Environnements différents, Dont le Module SOMBOX</t>
+  </si>
+  <si>
+    <t>Impact of E-reporting by Patients With Relapsing-remitting Multiple Sclerosis on the Reporting of Adverse Drug Reactions in France: a Randomized Controlled Trial.</t>
   </si>
   <si>
     <t>Effects of Parabolic Flight on Spatial Cognition and Hippocampal Plasticity</t>
   </si>
   <si>
-    <t>Biomarkers for the Diagnosis of Transient Ischemic Attack</t>
-  </si>
-  <si>
-    <t>Haemodynamics Variations of Transcutaneous Oxygen in Patient With Arterio-venous Leg Ulcers Under Venous Compression (COMPULCE Study)</t>
-  </si>
-  <si>
-    <t>Impact of Educational Actions on the Quality Of Life of Epileptic Patients</t>
-  </si>
-  <si>
     <t>Sleep Apnea Diagnosis Using a Novel Pacemaker Algorithm and Link With Aldosterone Plasma Level in Patients Presenting With Diastolic Dysfunction: SAPAAD Study</t>
   </si>
   <si>
-    <t>Impact of E-reporting by Patients With Relapsing-remitting Multiple Sclerosis on the Reporting of Adverse Drug Reactions in France: a Randomized Controlled Trial.</t>
-  </si>
-  <si>
-    <t>Musinduc : Impact of Music During the Period of Anaesthetic Induction - a Randomized Controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>Evaluation de l'efficacité Sur la Vigilance et Les Performances de Conduite simulée d'Une Sieste effectuée Dans Des Environnements différents, Dont le Module SOMBOX</t>
-  </si>
-  <si>
     <t>Transcultural Validation of the Physical Activity Scale for Individuals With Physical Disabilities (PASIPD) in French: The PASIPD-Fr</t>
   </si>
   <si>
+    <t>Airtraq Versus Fiberoptic for Awake Tracheal Intubation : A Randomised Non-inferiority Trial</t>
+  </si>
+  <si>
+    <t>Assessment of Attentional and Executive Disorders in Multiple Sclerosis Using Techniques of Virtual Reality</t>
+  </si>
+  <si>
+    <t>MULTI-SYSTEM PHYSIOLOGIC RESPONSE TO VARYING LEVELS OF PARTIAL GRAVITY</t>
+  </si>
+  <si>
+    <t>Does Preprocedural Ultrasound Exam of Lumbar Spine Increase the First-pass Success Rate of Epidural Space Identification Among Obese Parturients: A Randomized Controlled Open Trial</t>
+  </si>
+  <si>
     <t>Pediatric Intensive Care Unit and Primary Immune Deficiency</t>
   </si>
   <si>
+    <t>Diagnosis of Lower Respiratory Tract Infection by Lung Ultrasonography in General Practice : a Prospective, Interventional and Multicentric Study</t>
+  </si>
+  <si>
+    <t>Evaluate the Relevance of the Use of Peripheral Venous Blood Gases for the Care of Patients in the S.A.U.V (Vital Emergency Rooms) of the CHU de Caen</t>
+  </si>
+  <si>
     <t>Efficacy, Tolerance and Acceptability of Pulsed Dye Laser on Telangiectasias of the Face and Neckline in Systemic Scleroderma: a Prospective Single-center Open-label Study of 21 Patients</t>
   </si>
   <si>
-    <t>Does Preprocedural Ultrasound Exam of Lumbar Spine Increase the First-pass Success Rate of Epidural Space Identification Among Obese Parturients: A Randomized Controlled Open Trial</t>
-  </si>
-  <si>
-    <t>MULTI-SYSTEM PHYSIOLOGIC RESPONSE TO VARYING LEVELS OF PARTIAL GRAVITY</t>
-  </si>
-  <si>
-    <t>Evaluate the Relevance of the Use of Peripheral Venous Blood Gases for the Care of Patients in the S.A.U.V (Vital Emergency Rooms) of the CHU de Caen</t>
-  </si>
-  <si>
-    <t>Airtraq Versus Fiberoptic for Awake Tracheal Intubation : A Randomised Non-inferiority Trial</t>
-  </si>
-  <si>
-    <t>Diagnosis of Lower Respiratory Tract Infection by Lung Ultrasonography in General Practice : a Prospective, Interventional and Multicentric Study</t>
-  </si>
-  <si>
-    <t>Assessment of Attentional and Executive Disorders in Multiple Sclerosis Using Techniques of Virtual Reality</t>
+    <t>Comparison of the Pharmacokinetic and the Safety of Daptomycin Administered Subcutaneously Compared to the Intravenous Route : a Cross-over Study</t>
   </si>
   <si>
     <t>A Study of Bioequivalence When Administering Biktarvy® (TAF/FTC/BIC) in the Form of a Solid/Crushed/Dissolved Tablet to Healthy Volunteers - SOLUBIC Study</t>
   </si>
   <si>
+    <t>Evaluation of an Immersive Audiovisual Distraction Device Impact on Peroperative Opioid Consumption. A Prospective Randomized Controlled Study</t>
+  </si>
+  <si>
+    <t>Effect of Tenofovir/Emtricitabine Short Course on Viral Clearance in Patients Recently Infected With SARS-COV2 (Covid-19) Not Requiring Hospitalization: a Phase IIB/III Multicenter Open-label Randomized Controlled Trial</t>
+  </si>
+  <si>
     <t>Comparison of Two FiO2 (1 or 0.5) for Tracheal Extubation in Post-anesthesia Care Unit : a Monocentric Randomized Trial</t>
   </si>
   <si>
-    <t>Comparison of the Pharmacokinetic and the Safety of Daptomycin Administered Subcutaneously Compared to the Intravenous Route : a Cross-over Study</t>
-  </si>
-  <si>
-    <t>Effect of Tenofovir/Emtricitabine Short Course on Viral Clearance in Patients Recently Infected With SARS-COV2 (Covid-19) Not Requiring Hospitalization: a Phase IIB/III Multicenter Open-label Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of an Immersive Audiovisual Distraction Device Impact on Peroperative Opioid Consumption. A Prospective Randomized Controlled Study</t>
-  </si>
-  <si>
     <t>Study of the Impact of Sophrology on the Pain Felt During a Bone Marrow Aspiration and Biopsy</t>
   </si>
   <si>
     <t>Validity of Somatosensori Remediation for Postural Control in the Treatment of Ehlers-Danlos Syndrome Hypermobility Type (hEDS)</t>
   </si>
   <si>
+    <t>Study of the Predictive Markers and the Pathophysiological Mechanisms of Alzheimer's Disease: Transverse and Longitudinal Approach in Anatomical and Functional Multimodal Imaging</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics of Apixaban in Subjects With End-stage Renal Disease Treated With Peritoneal Dialysis: the ApiDP Study</t>
+  </si>
+  <si>
     <t>Assessment of the Impact of Virtual Reality on Patient Anxiety During Dental Avulsions Under Local Anesthesia</t>
   </si>
   <si>
-    <t>Pharmacokinetics of Apixaban in Subjects With End-stage Renal Disease Treated With Peritoneal Dialysis: the ApiDP Study</t>
+    <t>ELECTRODIAB2: Effect of an Outpatient Program of Bi-quadricipital Electrostimulation on Glucose Profile of Sedentary Patients With Type 2 Diabetes.</t>
+  </si>
+  <si>
+    <t>Transnasal Humidified Rapid-Insufflation Ventilatory Exchange (THRIVE) Could Decrease the Incidence of Oxygen Desaturation During Suspension Laryngoscopy: a Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Cognitive, Emotional, Physiological, Chronobiological and Genetic Effects of a Time Underground Isolation</t>
   </si>
   <si>
-    <t>Study of the Predictive Markers and the Pathophysiological Mechanisms of Alzheimer's Disease: Transverse and Longitudinal Approach in Anatomical and Functional Multimodal Imaging</t>
-  </si>
-  <si>
     <t>Kinetics of the Determinants of Performance During an Ultra-trail</t>
   </si>
   <si>
-    <t>ELECTRODIAB2: Effect of an Outpatient Program of Bi-quadricipital Electrostimulation on Glucose Profile of Sedentary Patients With Type 2 Diabetes.</t>
-  </si>
-  <si>
-    <t>Transnasal Humidified Rapid-Insufflation Ventilatory Exchange (THRIVE) Could Decrease the Incidence of Oxygen Desaturation During Suspension Laryngoscopy: a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of Immersion in Virtual Reality in the Management of Anxiety, Then Pain, of Patients in Interventional Imaging.</t>
-  </si>
-  <si>
-    <t>Evaluation of Myocardial Reperfusion and Residual Thrombotic Burden After Primary PCI for STEMI in Patients With High on Ticagrelor Platelet Reactivity Treated by IV Cangrelor Versus Ticagrelor Alone</t>
+    <t>Usefulness of Sterile Adhesive Dressing at the Exit-site of Peritoneal Dialysis Catheter: a Pilot Study</t>
+  </si>
+  <si>
+    <t>Longitudinal Analysis of Right Ventricular Remodeling in Response to Prolonged Strength Training Using 3D-echocardiography</t>
   </si>
   <si>
     <t>Efficacy of Simulation-based Neonatal Echocardiography Training: a Randomized Controlled Trial</t>
@@ -648,22 +669,40 @@
  Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée.</t>
   </si>
   <si>
-    <t>Longitudinal Analysis of Right Ventricular Remodeling in Response to Prolonged Strength Training Using 3D-echocardiography</t>
-  </si>
-  <si>
     <t>Follow-up of the Nasal Microbiome and Viral Infections in Newborns Hospitalised in Neonatology in the University Hospital of Caen, France : Metatranscriptomics Approach by Next Generation Sequencing From Nasal Swabs.</t>
   </si>
   <si>
-    <t>Usefulness of Sterile Adhesive Dressing at the Exit-site of Peritoneal Dialysis Catheter: a Pilot Study</t>
+    <t>Evaluation of Myocardial Reperfusion and Residual Thrombotic Burden After Primary PCI for STEMI in Patients With High on Ticagrelor Platelet Reactivity Treated by IV Cangrelor Versus Ticagrelor Alone</t>
+  </si>
+  <si>
+    <t>Evaluation of Immersion in Virtual Reality in the Management of Anxiety, Then Pain, of Patients in Interventional Imaging.</t>
   </si>
   <si>
     <t>Feasibility and Evaluation Study of the UPLUG Hemodialysis Connection Device</t>
+  </si>
+  <si>
+    <t>Alcohol Consumption, Intention Implementation and Mindfulness Meditation (ADUC-Volet 3 " Prevention ")</t>
+  </si>
+  <si>
+    <t>Spironolactone and perioperative atrial fibrillation occurrence in cardiac surgery patients: a multicenter randomized, double-blind study 
+ Spironolactone et fibrillation atriale survenant après chirurgie cardiaque : essai multicentrique randomisée en double aveugle</t>
   </si>
   <si>
     <t>Essai randomisé, contrôlé, en double aveugle, de l'anakinra contre placebo, en adjonction à la corticothérapie dans l'artérite à cellules géantes. 
  Essai randomisé, contrôlé, en double aveugle, de l'anakinra contre placebo, en adjonction à la corticothérapie dans l'artérite à cellules géantes.</t>
   </si>
   <si>
+    <t>FIVHeMA: Intraventricular fibrinolysis versus external ventricular drainage alone in aneurysmal subarachnoid hemorrhage: a randomized controlled trial.</t>
+  </si>
+  <si>
+    <t>COMPARAISON DU PROFIL PHARMACOCINETIQUE ET DE LA SECURITE DE LA DAPTOMYCINE ADMINISTREE PAR VOIE SOUS-CUTANEE PAR RAPPORT A LA VOIE INTRAVEINEUSE : ETUDE EN CROSS-OVER 
+ COMPARAISON DU PROFIL PHARMACOCINETIQUE ET DE LA SECURITE DE LA DAPTOMYCINE ADMINISTREE PAR VOIE SOUS-CUTANEE PAR RAPPORT A LA VOIE INTRAVEINEUSE : ETUDE EN CROSS-OVER</t>
+  </si>
+  <si>
+    <t>ETUDE DE TOLERANCE DE LA N-ACETYLCYSTEINE POUR LA THROMBOLYSE A LA PHASE AIGUË DE L’INFARCTUS CEREBRAL 
+ ETUDE DE TOLERANCE DE LA N-ACETYLCYSTEINE POUR LA THROMBOLYSE A LA PHASE AIGUË DE L’INFARCTUS CEREBRAL</t>
+  </si>
+  <si>
     <t>Maggot Therapy for Wound Debridement: a Randomized Multicentric Double-blind Trial</t>
   </si>
   <si>
@@ -694,37 +733,40 @@
     <t>FLT</t>
   </si>
   <si>
+    <t>HeMO</t>
+  </si>
+  <si>
+    <t>AutoSop-Foie</t>
+  </si>
+  <si>
+    <t>SOLISO</t>
+  </si>
+  <si>
     <t>NATRIPHAR</t>
   </si>
   <si>
-    <t>SOLISO</t>
-  </si>
-  <si>
     <t>HYPONCO</t>
   </si>
   <si>
-    <t>AutoSop-Foie</t>
-  </si>
-  <si>
-    <t>HeMO</t>
+    <t>ECOMIII</t>
+  </si>
+  <si>
+    <t>TMS HALLU</t>
+  </si>
+  <si>
+    <t>rTMS-P50</t>
   </si>
   <si>
     <t>ECHOCARPE</t>
   </si>
   <si>
-    <t>ECOMIII</t>
-  </si>
-  <si>
-    <t>rTMS-P50</t>
-  </si>
-  <si>
-    <t>TMS HALLU</t>
+    <t>3DPICK</t>
   </si>
   <si>
     <t>HYDRONAUT</t>
   </si>
   <si>
-    <t>3DPICK</t>
+    <t>ELECTRODIAB</t>
   </si>
   <si>
     <t>DROITDEVANT</t>
@@ -733,49 +775,46 @@
     <t>COSI@PFC</t>
   </si>
   <si>
-    <t>ELECTRODIAB</t>
+    <t>O-Mel-Sora</t>
+  </si>
+  <si>
+    <t>TEP-READ</t>
+  </si>
+  <si>
+    <t>Extu-Cough</t>
   </si>
   <si>
     <t>3SITES</t>
   </si>
   <si>
+    <t>HYDRAREA</t>
+  </si>
+  <si>
     <t>SEME</t>
   </si>
   <si>
-    <t>O-Mel-Sora</t>
-  </si>
-  <si>
-    <t>Extu-Cough</t>
-  </si>
-  <si>
-    <t>HYDRAREA</t>
-  </si>
-  <si>
     <t>TMS-Hz</t>
   </si>
   <si>
-    <t>TEP-READ</t>
-  </si>
-  <si>
-    <t>PANEX3</t>
-  </si>
-  <si>
-    <t>STEROSENS</t>
-  </si>
-  <si>
     <t>e-TEMP</t>
-  </si>
-  <si>
-    <t>FLUDATEP</t>
-  </si>
-  <si>
-    <t>D-TEP</t>
   </si>
   <si>
     <t>WATER-DAY 
  WATER-DAY</t>
   </si>
   <si>
+    <t>PANEX3</t>
+  </si>
+  <si>
+    <t>STEROSENS</t>
+  </si>
+  <si>
+    <t>D-TEP</t>
+  </si>
+  <si>
+    <t>FLUDATEP</t>
+  </si>
+  <si>
     <t>DAPTODP</t>
   </si>
   <si>
@@ -785,109 +824,109 @@
     <t>FAST DOGS</t>
   </si>
   <si>
+    <t>ADDGEST</t>
+  </si>
+  <si>
+    <t>FREE BOLI</t>
+  </si>
+  <si>
+    <t>XYLOBAR</t>
+  </si>
+  <si>
+    <t>CFC</t>
+  </si>
+  <si>
+    <t>MAGNETIK</t>
+  </si>
+  <si>
     <t>ISOSTIFF</t>
   </si>
   <si>
-    <t>FREE BOLI</t>
-  </si>
-  <si>
-    <t>XYLOBAR</t>
-  </si>
-  <si>
-    <t>CFC</t>
-  </si>
-  <si>
-    <t>MAGNETIK</t>
-  </si>
-  <si>
-    <t>ADDGEST</t>
+    <t>MUSINDUC</t>
+  </si>
+  <si>
+    <t>MAESTRO</t>
+  </si>
+  <si>
+    <t>EQOLE</t>
+  </si>
+  <si>
+    <t>SOMBOX</t>
+  </si>
+  <si>
+    <t>VigiP-SEP</t>
   </si>
   <si>
     <t>HypoCampus</t>
   </si>
   <si>
-    <t>MAESTRO</t>
-  </si>
-  <si>
-    <t>EQOLE</t>
-  </si>
-  <si>
     <t>SAPAAD</t>
   </si>
   <si>
-    <t>VigiP-SEP</t>
-  </si>
-  <si>
-    <t>MUSINDUC</t>
-  </si>
-  <si>
-    <t>SOMBOX</t>
-  </si>
-  <si>
     <t>PASIPD-Fr</t>
   </si>
   <si>
+    <t>SEPREV</t>
+  </si>
+  <si>
+    <t>GRAVIDOSE</t>
+  </si>
+  <si>
     <t>PICUPID</t>
   </si>
   <si>
+    <t>AmbuLUS</t>
+  </si>
+  <si>
+    <t>GDS</t>
+  </si>
+  <si>
     <t>PDL</t>
   </si>
   <si>
-    <t>GRAVIDOSE</t>
-  </si>
-  <si>
-    <t>GDS</t>
-  </si>
-  <si>
-    <t>AmbuLUS</t>
-  </si>
-  <si>
-    <t>SEPREV</t>
+    <t>DAPTOSC</t>
   </si>
   <si>
     <t>SOLUBIC</t>
   </si>
   <si>
+    <t>AmbuCineView</t>
+  </si>
+  <si>
+    <t>AR0-CORONA</t>
+  </si>
+  <si>
     <t>EXTUBO2</t>
   </si>
   <si>
-    <t>DAPTOSC</t>
-  </si>
-  <si>
-    <t>AR0-CORONA</t>
-  </si>
-  <si>
-    <t>AmbuCineView</t>
-  </si>
-  <si>
     <t>BOM-ZEN</t>
   </si>
   <si>
     <t>VITALISED</t>
   </si>
   <si>
+    <t>IMAP+</t>
+  </si>
+  <si>
+    <t>ApiDP</t>
+  </si>
+  <si>
     <t>REVIDEN</t>
   </si>
   <si>
-    <t>ApiDP</t>
+    <t>ELECTRODIAB2</t>
+  </si>
+  <si>
+    <t>optilaryngo</t>
   </si>
   <si>
     <t>DEEPTIME</t>
   </si>
   <si>
-    <t>IMAP+</t>
-  </si>
-  <si>
-    <t>ELECTRODIAB2</t>
-  </si>
-  <si>
-    <t>optilaryngo</t>
-  </si>
-  <si>
-    <t>IRVARI</t>
-  </si>
-  <si>
-    <t>ERMIT</t>
+    <t>PANCADIPE</t>
+  </si>
+  <si>
+    <t>FORCE-VD</t>
   </si>
   <si>
     <t>SimuEchoNeo</t>
@@ -897,46 +936,60 @@
  ERMIT</t>
   </si>
   <si>
-    <t>FORCE-VD</t>
-  </si>
-  <si>
     <t>NEOBIOME</t>
   </si>
   <si>
-    <t>PANCADIPE</t>
+    <t>ERMIT</t>
+  </si>
+  <si>
+    <t>IRVARI</t>
   </si>
   <si>
     <t>UPLUG-SAFE</t>
   </si>
   <si>
-    <t>AUTOCARD</t>
+    <t>ALCOMEDIIT</t>
+  </si>
+  <si>
+    <t>ALDOCURE 
+ ALDOCURE</t>
   </si>
   <si>
     <t>GiAnT 
  GiAnT</t>
   </si>
   <si>
+    <t>FIVHEMA</t>
+  </si>
+  <si>
+    <t>DAPTOSC 
+ DAPTOSC</t>
+  </si>
+  <si>
+    <t>AUTOCARD</t>
+  </si>
+  <si>
+    <t>MAGGOT</t>
+  </si>
+  <si>
+    <t>TEPVAD</t>
+  </si>
+  <si>
     <t>CORTICOG</t>
   </si>
   <si>
     <t>IPSI2</t>
   </si>
   <si>
-    <t>TEPVAD</t>
-  </si>
-  <si>
-    <t>MAGGOT</t>
-  </si>
-  <si>
     <t>IQSCINTIMYOC</t>
   </si>
   <si>
+    <t>ADRECARD</t>
+  </si>
+  <si>
     <t>NUQUE2</t>
   </si>
   <si>
-    <t>ADRECARD</t>
-  </si>
-  <si>
     <t>DYMCO</t>
   </si>
   <si>
@@ -949,6 +1002,9 @@
     <t>DEVICE</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -959,6 +1015,9 @@
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
+  </si>
+  <si>
+    <t>GENETIC</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1362,13 +1421,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1382,16 +1441,16 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1405,13 +1464,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1425,16 +1484,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1448,16 +1507,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1471,13 +1530,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1491,16 +1550,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1511,16 +1570,19 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>232</v>
+      </c>
+      <c r="I9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1534,16 +1596,16 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1557,16 +1619,16 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1577,16 +1639,19 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>235</v>
+      </c>
+      <c r="I12" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1600,16 +1665,16 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="I13" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1623,13 +1688,13 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1643,39 +1708,36 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H16" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I16" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1689,13 +1751,16 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>157</v>
+      </c>
+      <c r="H17" t="s">
+        <v>238</v>
       </c>
       <c r="I17" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1709,16 +1774,16 @@
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H18" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="I18" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1732,39 +1797,39 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H19" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I19" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="I20" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1778,16 +1843,16 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H21" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="I21" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1801,16 +1866,13 @@
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="I22" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1824,16 +1886,16 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="I23" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1847,13 +1909,16 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>163</v>
       </c>
       <c r="H24" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I24" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1867,13 +1932,16 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>164</v>
       </c>
       <c r="H25" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="I25" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1887,16 +1955,13 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H26" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I26" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1910,13 +1975,13 @@
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H27" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="I27" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1930,13 +1995,13 @@
         <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="I28" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1950,102 +2015,99 @@
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H29" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="I29" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="H30" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I30" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="H31" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="I31" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="G32" t="s">
+        <v>165</v>
       </c>
       <c r="H32" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I33" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2059,13 +2121,13 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H34" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2079,102 +2141,108 @@
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G38" t="s">
+        <v>170</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I39" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2185,19 +2253,16 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G40" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I40" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2208,102 +2273,105 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="I41" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>263</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H43" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="I43" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="H45" t="s">
+        <v>265</v>
       </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2317,13 +2385,13 @@
         <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2337,16 +2405,16 @@
         <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G47" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H47" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2360,16 +2428,16 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G48" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="I48" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2380,16 +2448,19 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H49" t="s">
-        <v>257</v>
+        <v>269</v>
+      </c>
+      <c r="I49" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2403,16 +2474,16 @@
         <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H50" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I50" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2426,16 +2497,16 @@
         <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G51" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I51" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2449,16 +2520,16 @@
         <v>63</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G52" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I52" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2472,16 +2543,13 @@
         <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G53" t="s">
-        <v>175</v>
-      </c>
-      <c r="H53" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="I53" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2495,16 +2563,16 @@
         <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H54" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="I54" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2518,13 +2586,16 @@
         <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G55" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="H55" t="s">
+        <v>274</v>
       </c>
       <c r="I55" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2538,39 +2609,39 @@
         <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G56" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I56" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G57" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H57" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I57" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2584,16 +2655,16 @@
         <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H58" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I58" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2607,39 +2678,39 @@
         <v>70</v>
       </c>
       <c r="F59" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H59" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="I59" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G60" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I60" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2653,39 +2724,36 @@
         <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G61" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H61" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="I61" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G62" t="s">
-        <v>184</v>
-      </c>
-      <c r="H62" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="I62" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2699,59 +2767,59 @@
         <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G63" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H63" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="I63" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>193</v>
+      </c>
+      <c r="H64" t="s">
+        <v>282</v>
       </c>
       <c r="I64" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>187</v>
-      </c>
-      <c r="H65" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="I65" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2765,36 +2833,39 @@
         <v>77</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="I66" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G67" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="H67" t="s">
+        <v>284</v>
       </c>
       <c r="I67" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2808,16 +2879,16 @@
         <v>79</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G68" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="I68" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2831,16 +2902,16 @@
         <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G69" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H69" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I69" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2854,16 +2925,16 @@
         <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G70" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I70" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2877,39 +2948,39 @@
         <v>82</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G71" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H71" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I71" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G72" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I72" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2923,39 +2994,39 @@
         <v>84</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G73" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="I73" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G74" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="I74" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2969,16 +3040,16 @@
         <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G75" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H75" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I75" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2992,39 +3063,39 @@
         <v>87</v>
       </c>
       <c r="F76" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G76" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H76" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I76" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
         <v>88</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G77" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H77" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I77" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3038,16 +3109,16 @@
         <v>89</v>
       </c>
       <c r="F78" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G78" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H78" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I78" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3061,39 +3132,39 @@
         <v>90</v>
       </c>
       <c r="F79" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G79" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H79" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="I79" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>91</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G80" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H80" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="I80" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3107,13 +3178,16 @@
         <v>92</v>
       </c>
       <c r="F81" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G81" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="H81" t="s">
+        <v>298</v>
       </c>
       <c r="I81" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3127,16 +3201,16 @@
         <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G82" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H82" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="I82" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3150,16 +3224,13 @@
         <v>94</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>205</v>
-      </c>
-      <c r="H83" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="I83" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3173,16 +3244,16 @@
         <v>95</v>
       </c>
       <c r="F84" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G84" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H84" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="I84" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3196,16 +3267,16 @@
         <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G85" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H85" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="I85" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3219,16 +3290,16 @@
         <v>97</v>
       </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G86" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H86" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="I86" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3239,16 +3310,19 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G87" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H87" t="s">
-        <v>291</v>
+        <v>303</v>
+      </c>
+      <c r="I87" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3262,16 +3336,16 @@
         <v>98</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G88" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H88" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="I88" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3285,16 +3359,16 @@
         <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G89" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H89" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="I89" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3308,16 +3382,16 @@
         <v>100</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G90" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H90" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="I90" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3331,16 +3405,16 @@
         <v>101</v>
       </c>
       <c r="F91" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G91" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H91" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="I91" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3353,11 +3427,17 @@
       <c r="C92" t="s">
         <v>102</v>
       </c>
+      <c r="F92" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" t="s">
+        <v>221</v>
+      </c>
       <c r="H92" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="I92" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3368,13 +3448,19 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="F93" t="s">
+        <v>141</v>
       </c>
       <c r="G93" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H93" t="s">
-        <v>297</v>
+        <v>309</v>
+      </c>
+      <c r="I93" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3384,14 +3470,17 @@
       <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="C94" t="s">
-        <v>103</v>
+      <c r="D94" t="s">
+        <v>118</v>
+      </c>
+      <c r="G94" t="s">
+        <v>223</v>
       </c>
       <c r="H94" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="I94" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3401,14 +3490,17 @@
       <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C95" t="s">
-        <v>104</v>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+      <c r="G95" t="s">
+        <v>224</v>
       </c>
       <c r="H95" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="I95" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3418,34 +3510,34 @@
       <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="C96" t="s">
-        <v>105</v>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" t="s">
+        <v>225</v>
       </c>
       <c r="H96" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="I96" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>121</v>
       </c>
       <c r="G97" t="s">
-        <v>215</v>
-      </c>
-      <c r="H97" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="I97" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3456,30 +3548,33 @@
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H98" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="I98" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="G99" t="s">
+        <v>227</v>
       </c>
       <c r="H99" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="I99" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3490,13 +3585,13 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H100" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="I100" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3507,13 +3602,98 @@
         <v>14</v>
       </c>
       <c r="C101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101" t="s">
+        <v>316</v>
+      </c>
+      <c r="I101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102" t="s">
+        <v>317</v>
+      </c>
+      <c r="I102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103" t="s">
+        <v>318</v>
+      </c>
+      <c r="I103" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104" t="s">
+        <v>319</v>
+      </c>
+      <c r="I104" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
         <v>110</v>
       </c>
-      <c r="H101" t="s">
-        <v>305</v>
-      </c>
-      <c r="I101" t="s">
-        <v>309</v>
+      <c r="H105" t="s">
+        <v>320</v>
+      </c>
+      <c r="I105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106" t="s">
+        <v>321</v>
+      </c>
+      <c r="I106" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
